--- a/PV_ICE/baselines/SupportingMaterial/Harmonize_graphs.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/Harmonize_graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56411CA-0E79-4496-8F7A-9E7590494832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FAACFF-193F-4168-AF00-B8B4070DEF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D931EBBB-F0C0-4C12-9066-9D55B5844573}"/>
+    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{D931EBBB-F0C0-4C12-9066-9D55B5844573}"/>
   </bookViews>
   <sheets>
     <sheet name="USInstallsLitCompare" sheetId="1" r:id="rId1"/>
@@ -209,9 +209,6 @@
     <t>M. Bolinger et al 2019 "utility scale"</t>
   </si>
   <si>
-    <t>PV ICE Si-only Annual Installs</t>
-  </si>
-  <si>
     <t>Wood Mackenzie US PV Forecasts Report - 2020-yir</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
   </si>
   <si>
     <t>ton/MW</t>
+  </si>
+  <si>
+    <t>Baseline</t>
   </si>
 </sst>
 </file>
@@ -2228,7 +2228,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PV ICE Si-only Annual Installs</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2771,12 +2771,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -27546,11 +27541,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61314F7D-DD79-469D-B970-9A7E66501C25}">
   <dimension ref="A1:AK1014"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AS21" sqref="AS21"/>
+      <selection pane="bottomRight" activeCell="AA45" sqref="AA45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27575,13 +27570,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>52</v>
@@ -52731,7 +52726,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -53843,7 +53838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A705CA4-15CE-47FA-BD3E-74BB8D3BD66C}">
   <dimension ref="A1:AI73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -53866,22 +53861,22 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B1" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
       <c r="G1" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>61</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="33"/>
       <c r="J1" s="34"/>
       <c r="K1" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L1" s="33"/>
       <c r="M1" s="33"/>
@@ -53901,17 +53896,17 @@
       <c r="AA1" s="33"/>
       <c r="AB1" s="33"/>
       <c r="AC1" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD1" s="40"/>
       <c r="AE1" s="40"/>
       <c r="AF1" s="40"/>
       <c r="AG1" s="40"/>
       <c r="AH1" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" s="36" t="s">
         <v>65</v>
-      </c>
-      <c r="AI1" s="36" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -53919,76 +53914,76 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>70</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>73</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>74</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>75</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>76</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>78</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>79</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>81</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>82</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AC2" t="s">
         <v>83</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>85</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>86</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>87</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI2" t="s">
         <v>88</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">

--- a/PV_ICE/baselines/SupportingMaterial/Harmonize_graphs.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/Harmonize_graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FAACFF-193F-4168-AF00-B8B4070DEF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864E5862-E7A6-458A-83A0-664BFA3D1664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{D931EBBB-F0C0-4C12-9066-9D55B5844573}"/>
+    <workbookView xWindow="40125" yWindow="-195" windowWidth="17415" windowHeight="14310" activeTab="2" xr2:uid="{D931EBBB-F0C0-4C12-9066-9D55B5844573}"/>
   </bookViews>
   <sheets>
     <sheet name="USInstallsLitCompare" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>SOURCE</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Module Power W/m^2</t>
   </si>
   <si>
-    <t>PV ICE (including +8% for "plastics")</t>
-  </si>
-  <si>
     <t>IRENA 2016 Fit Equation</t>
   </si>
   <si>
@@ -306,6 +303,15 @@
   </si>
   <si>
     <t>Baseline</t>
+  </si>
+  <si>
+    <t>Encapsulant</t>
+  </si>
+  <si>
+    <t>Backsheets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV ICE </t>
   </si>
 </sst>
 </file>
@@ -2856,7 +2862,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$H$2</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3056,177 +3062,177 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$H$18:$H$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$J$18:$J$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>12995.621465688002</c:v>
+                  <c:v>13058.982838600001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12894.281663979602</c:v>
+                  <c:v>12971.62968887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12529.802365711199</c:v>
+                  <c:v>12640.628857139998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12335.735421802801</c:v>
+                  <c:v>12467.417242410002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12253.938335665202</c:v>
+                  <c:v>12398.159199690001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12149.924067932401</c:v>
+                  <c:v>12308.32969253</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12079.445007898801</c:v>
+                  <c:v>12249.55130361</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12013.050358728</c:v>
+                  <c:v>12194.5547766</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11963.559040117201</c:v>
+                  <c:v>12155.20948159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11876.400025815601</c:v>
+                  <c:v>12080.708843870001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11594.702875528799</c:v>
+                  <c:v>11826.063102059999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11433.7854051912</c:v>
+                  <c:v>11703.680709439999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11375.161269944401</c:v>
+                  <c:v>11675.947875330001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11318.091671566801</c:v>
+                  <c:v>11649.58719591</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11287.616101200001</c:v>
+                  <c:v>11647.782635400001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11258.0000011836</c:v>
+                  <c:v>11646.70513857</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11233.578934954799</c:v>
+                  <c:v>11650.368343809998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11313.864513484919</c:v>
+                  <c:v>11746.620733948999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11026.591475991121</c:v>
+                  <c:v>11501.947299613999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11140.607814849362</c:v>
+                  <c:v>11613.587606342002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10962.46778752476</c:v>
+                  <c:v>11469.761856297</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10801.00860444972</c:v>
+                  <c:v>11342.296926708999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10908.079754005079</c:v>
+                  <c:v>11428.486763000998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10945.194367452839</c:v>
+                  <c:v>11456.292562422997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11194.951847950799</c:v>
+                  <c:v>11680.218155509998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11567.9029907646</c:v>
+                  <c:v>11992.999087745</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11532.421625186522</c:v>
+                  <c:v>11938.257171469</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11581.218548663761</c:v>
+                  <c:v>11962.633483022</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11634.435621304561</c:v>
+                  <c:v>11991.026175282001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11531.442422275562</c:v>
+                  <c:v>11861.781752107001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11428.079989552562</c:v>
+                  <c:v>11732.635745882</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11595.372355879923</c:v>
+                  <c:v>11851.079951774002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11760.02661832812</c:v>
+                  <c:v>11967.227202088998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11925.495606738601</c:v>
+                  <c:v>12084.274561795</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12122.852017801682</c:v>
+                  <c:v>12249.951868346001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12317.688854865719</c:v>
+                  <c:v>12413.288680408998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>12577.750713208998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3460,11 +3466,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$K$2</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PV ICE (including +8% for "plastics")</c:v>
+                  <c:v>PV ICE </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3706,177 +3712,177 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$K$3:$K$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$M$3:$M$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>103.96497172550401</c:v>
+                  <c:v>104.4718627088</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00">
-                  <c:v>101.52977688172915</c:v>
+                  <c:v>102.13881644779528</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00">
-                  <c:v>97.281074267944078</c:v>
+                  <c:v>98.141528393944071</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
-                  <c:v>94.454329416560498</c:v>
+                  <c:v>95.462612882159277</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00">
-                  <c:v>92.55240434792448</c:v>
+                  <c:v>93.641685798262841</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00">
-                  <c:v>90.535946854935929</c:v>
+                  <c:v>91.716316635842034</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00">
-                  <c:v>88.819448587491181</c:v>
+                  <c:v>90.070230173602937</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00">
-                  <c:v>87.544496555514897</c:v>
+                  <c:v>88.867200815525052</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00">
-                  <c:v>86.414150397769248</c:v>
+                  <c:v>87.798463378354256</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00">
-                  <c:v>85.03389037933988</c:v>
+                  <c:v>86.4967220118385</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00">
-                  <c:v>82.296786964928629</c:v>
+                  <c:v>83.938933683080521</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00">
-                  <c:v>80.456660402475748</c:v>
+                  <c:v>82.355845498980131</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00">
-                  <c:v>79.361590273882243</c:v>
+                  <c:v>81.460101474734913</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00">
-                  <c:v>78.295791708518735</c:v>
+                  <c:v>80.588996718642889</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00">
-                  <c:v>77.430293365330755</c:v>
+                  <c:v>79.900947944069983</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00">
-                  <c:v>76.585034021657137</c:v>
+                  <c:v>79.229286656938768</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00">
-                  <c:v>74.394562483144369</c:v>
+                  <c:v>77.154757243774824</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00">
-                  <c:v>73.466652684967002</c:v>
+                  <c:v>76.276758012655833</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00">
-                  <c:v>68.916196724944513</c:v>
+                  <c:v>71.88717062258749</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00">
-                  <c:v>68.347287207664792</c:v>
+                  <c:v>71.249003719889586</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00">
-                  <c:v>64.48510463249859</c:v>
+                  <c:v>67.469187389982352</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00">
-                  <c:v>61.720049168284113</c:v>
+                  <c:v>64.813125295479992</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00">
-                  <c:v>61.62756923166711</c:v>
+                  <c:v>64.567721824864392</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00">
-                  <c:v>59.484751997026301</c:v>
+                  <c:v>62.262459578385858</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00">
-                  <c:v>58.307040874743741</c:v>
+                  <c:v>60.834469559947905</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00">
-                  <c:v>57.118145645809243</c:v>
+                  <c:v>59.217117326344287</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00">
-                  <c:v>55.192611847799668</c:v>
+                  <c:v>57.134885943215103</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00">
-                  <c:v>54.211872607758487</c:v>
+                  <c:v>55.997282126216383</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00">
-                  <c:v>53.533224300955837</c:v>
+                  <c:v>55.173995089589575</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00">
-                  <c:v>52.31964154519406</c:v>
+                  <c:v>53.818433690370455</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00">
-                  <c:v>51.238864136831886</c:v>
+                  <c:v>52.604368319067241</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00">
-                  <c:v>51.457127850718749</c:v>
+                  <c:v>52.591889033928986</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00">
-                  <c:v>51.71665209474773</c:v>
+                  <c:v>52.627850755428426</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00">
-                  <c:v>52.020582149227778</c:v>
+                  <c:v>52.713196858708926</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00">
-                  <c:v>52.494806388076967</c:v>
+                  <c:v>53.045178696216993</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00">
-                  <c:v>52.982328969116452</c:v>
+                  <c:v>53.393534469271891</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00">
-                  <c:v>53.494924141382249</c:v>
+                  <c:v>53.768524158417854</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00">
-                  <c:v>53.190534611222567</c:v>
+                  <c:v>53.462577826711602</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00">
-                  <c:v>52.908711748238368</c:v>
+                  <c:v>53.179313579496068</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00">
-                  <c:v>52.646435925516514</c:v>
+                  <c:v>52.915696345963447</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00">
-                  <c:v>52.401250027218055</c:v>
+                  <c:v>52.669256443345361</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00">
-                  <c:v>52.171128537708562</c:v>
+                  <c:v>52.437957996499065</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00">
-                  <c:v>51.954382434550325</c:v>
+                  <c:v>52.220103344474396</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00">
-                  <c:v>51.749588938643413</c:v>
+                  <c:v>52.014262431361686</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00">
-                  <c:v>51.555538625278935</c:v>
+                  <c:v>51.819219646844203</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00">
-                  <c:v>51.371194903668872</c:v>
+                  <c:v>51.633933098485947</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00">
-                  <c:v>51.195662905249705</c:v>
+                  <c:v>51.457503340914336</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00">
-                  <c:v>51.028164695605717</c:v>
+                  <c:v>51.289148460964746</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00">
-                  <c:v>50.868020006210976</c:v>
+                  <c:v>51.128184710874997</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00">
-                  <c:v>50.714630586454838</c:v>
+                  <c:v>50.974010780279151</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00">
-                  <c:v>50.567467526459886</c:v>
+                  <c:v>50.826095054187967</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00">
-                  <c:v>50.426061090110373</c:v>
+                  <c:v>50.683965394018344</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00">
-                  <c:v>50.289992201027722</c:v>
+                  <c:v>50.547200580023777</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00">
-                  <c:v>50.158885424490528</c:v>
+                  <c:v>50.415423257320384</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="0.00">
-                  <c:v>50.032403188729027</c:v>
+                  <c:v>50.288294127626152</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00">
-                  <c:v>49.910240870936946</c:v>
+                  <c:v>50.165507010140161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3893,7 +3899,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$L$2</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4138,7 +4144,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$L$3:$L$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$N$3:$N$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -4370,7 +4376,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$M$2</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4641,7 +4647,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$M$3:$M$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$O$3:$O$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -4696,7 +4702,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$N$2</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5232,7 +5238,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$N$3:$N$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$P$3:$P$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -5323,7 +5329,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$O$2</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6009,7 +6015,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$O$3:$O$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$Q$3:$Q$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -6145,7 +6151,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$P$2</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6901,7 +6907,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$P$3:$P$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$R$3:$R$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -7058,7 +7064,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$Q$2</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$S$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7365,7 +7371,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$Q$3:$Q$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$S$3:$S$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -7474,7 +7480,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$R$2</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7781,7 +7787,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$R$3:$R$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$T$3:$T$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -7944,7 +7950,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$S$2</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8265,7 +8271,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$S$3:$S$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$U$3:$U$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -8567,9 +8573,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43171534432343506"/>
-          <c:y val="5.4125150633395055E-2"/>
-          <c:w val="0.51556380003026581"/>
+          <c:x val="0.54515423437205279"/>
+          <c:y val="5.7131083791435715E-2"/>
+          <c:w val="0.39267176268002646"/>
           <c:h val="0.34223547440785235"/>
         </c:manualLayout>
       </c:layout>
@@ -8622,12 +8628,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -15463,7 +15464,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$AC$2</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15663,7 +15664,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$AC$18:$AC$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$AE$18:$AE$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -15850,7 +15851,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$AH$1</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$AJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16008,7 +16009,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$AH$32:$AH$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$AJ$32:$AJ$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -16463,7 +16464,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$AG$2</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$AI$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16663,7 +16664,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$AG$18:$AG$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$AI$18:$AI$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -17123,7 +17124,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$AD$2</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$AF$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17323,7 +17324,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$AD$18:$AD$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$AF$18:$AF$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -17510,7 +17511,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$AE$2</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$AG$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17710,7 +17711,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$AE$18:$AE$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$AG$18:$AG$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -17897,7 +17898,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$AF$2</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$AH$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18097,7 +18098,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mass-PowerFactorLitCompare'!$AF$18:$AF$73</c:f>
+              <c:f>'Mass-PowerFactorLitCompare'!$AH$18:$AH$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -26899,13 +26900,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>93662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -26937,13 +26938,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>87312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>160337</xdr:rowOff>
@@ -26975,13 +26976,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>179387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>377825</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>65087</xdr:rowOff>
@@ -27013,13 +27014,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>20637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>87312</xdr:rowOff>
@@ -27051,13 +27052,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>360361</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>1587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>466724</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>68262</xdr:rowOff>
@@ -27089,13 +27090,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>484187</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>179387</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>36512</xdr:rowOff>
@@ -27127,13 +27128,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>134937</xdr:rowOff>
@@ -27165,13 +27166,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>569912</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>39687</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>36512</xdr:rowOff>
@@ -27203,13 +27204,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>301868</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>84994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -27541,7 +27542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61314F7D-DD79-469D-B970-9A7E66501C25}">
   <dimension ref="A1:AK1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -27570,7 +27571,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>1</v>
@@ -53836,10 +53837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A705CA4-15CE-47FA-BD3E-74BB8D3BD66C}">
-  <dimension ref="A1:AI73"/>
+  <dimension ref="A1:AK73"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53849,17 +53850,19 @@
     <col min="3" max="3" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="37" customWidth="1"/>
-    <col min="11" max="12" width="8.26953125" customWidth="1"/>
-    <col min="13" max="19" width="11.81640625" customWidth="1"/>
-    <col min="20" max="20" width="2.26953125" style="37" customWidth="1"/>
-    <col min="33" max="33" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
+    <col min="11" max="11" width="7.6328125" customWidth="1"/>
+    <col min="12" max="12" width="2.453125" style="37" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" customWidth="1"/>
+    <col min="14" max="14" width="8.26953125" customWidth="1"/>
+    <col min="15" max="21" width="11.81640625" customWidth="1"/>
+    <col min="22" max="22" width="2.26953125" style="37" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B1" s="40" t="s">
         <v>59</v>
       </c>
@@ -53867,49 +53870,49 @@
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
       <c r="N1" s="33"/>
       <c r="O1" s="33"/>
       <c r="P1" s="33"/>
       <c r="Q1" s="33"/>
       <c r="R1" s="33"/>
       <c r="S1" s="33"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="34"/>
       <c r="W1" s="40"/>
       <c r="X1" s="40"/>
       <c r="Y1" s="40"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
       <c r="AB1" s="33"/>
-      <c r="AC1" s="40" t="s">
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
       <c r="AF1" s="40"/>
       <c r="AG1" s="40"/>
-      <c r="AH1" s="36" t="s">
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="AI1" s="36" t="s">
+      <c r="AK1" s="36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -53929,193 +53932,199 @@
         <v>70</v>
       </c>
       <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>73</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" t="s">
         <v>74</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>75</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>76</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>77</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>78</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>80</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>81</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AE2" t="s">
         <v>82</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>83</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>84</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>85</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>86</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK2" t="s">
         <v>87</v>
       </c>
-      <c r="AH2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1980</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>168.3042968</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1981</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>164.73019289999999</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1982</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>161.23198859999999</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1983</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>157.80807200000001</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1984</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>154.45686559999999</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1985</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>151.1768252</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1986</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>147.9664397</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1987</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>144.82422980000001</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1988</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>141.74874779999999</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1989</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>138.73857659999999</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1990</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>135.79232930000001</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1991</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>132.9086484</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1992</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>130.08620519999999</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1993</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>127.3236993</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1994</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>124.6198579</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1995</v>
       </c>
@@ -54134,56 +54143,62 @@
       <c r="F18">
         <v>88</v>
       </c>
-      <c r="G18" s="38">
-        <f t="shared" ref="G18:G31" si="0">SUM(B18:F18)</f>
-        <v>12032.982838600001</v>
-      </c>
-      <c r="H18" s="38">
-        <f>G18*1.08</f>
-        <v>12995.621465688002</v>
+      <c r="G18">
+        <v>846</v>
+      </c>
+      <c r="H18">
+        <v>180</v>
       </c>
       <c r="I18" s="38">
-        <f>AC18*1000/100</f>
+        <f>SUM(B18:H18)</f>
+        <v>13058.982838600001</v>
+      </c>
+      <c r="J18" s="38">
+        <f>I18*1</f>
+        <v>13058.982838600001</v>
+      </c>
+      <c r="K18" s="38">
+        <f>AE18*1000/100</f>
         <v>125</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38">
-        <f>H18/I18</f>
-        <v>103.96497172550401</v>
-      </c>
-      <c r="L18" s="38">
+      <c r="L18" s="39"/>
+      <c r="M18" s="38">
+        <f>J18/K18</f>
+        <v>104.4718627088</v>
+      </c>
+      <c r="N18" s="38">
         <v>121.9734352</v>
       </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
       <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
       <c r="S18" s="38"/>
-      <c r="T18" s="39"/>
+      <c r="T18" s="38"/>
       <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
+      <c r="V18" s="39"/>
       <c r="W18" s="38"/>
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
-      <c r="AC18">
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AE18">
         <v>12.5</v>
       </c>
-      <c r="AD18">
+      <c r="AF18">
         <v>15</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
         <v>20</v>
       </c>
-      <c r="AF18">
+      <c r="AH18">
         <v>10</v>
       </c>
-      <c r="AG18">
+      <c r="AI18">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1996</v>
       </c>
@@ -54202,56 +54217,62 @@
       <c r="F19">
         <v>84.571428569999995</v>
       </c>
-      <c r="G19" s="38">
-        <f t="shared" si="0"/>
-        <v>11939.14968887</v>
-      </c>
-      <c r="H19" s="38">
-        <f t="shared" ref="H19:H73" si="1">G19*1.08</f>
-        <v>12894.281663979602</v>
+      <c r="G19">
+        <v>846</v>
+      </c>
+      <c r="H19">
+        <v>186.48</v>
       </c>
       <c r="I19" s="38">
-        <f t="shared" ref="I19:I73" si="2">AC19*1000/100</f>
+        <f t="shared" ref="I19:I73" si="0">SUM(B19:H19)</f>
+        <v>12971.62968887</v>
+      </c>
+      <c r="J19" s="38">
+        <f t="shared" ref="J19:J73" si="1">I19*1</f>
+        <v>12971.62968887</v>
+      </c>
+      <c r="K19" s="38">
+        <f t="shared" ref="K19:K73" si="2">AE19*1000/100</f>
         <v>127</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="38">
-        <f t="shared" ref="K19:K73" si="3">H19/I19</f>
-        <v>101.52977688172915</v>
-      </c>
-      <c r="L19" s="38">
+      <c r="L19" s="39"/>
+      <c r="M19" s="38">
+        <f t="shared" ref="M19:M73" si="3">J19/K19</f>
+        <v>102.13881644779528</v>
+      </c>
+      <c r="N19" s="38">
         <v>119.3832118</v>
       </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
       <c r="O19" s="38"/>
       <c r="P19" s="38"/>
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="38"/>
-      <c r="T19" s="39"/>
+      <c r="T19" s="38"/>
       <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
+      <c r="V19" s="39"/>
       <c r="W19" s="38"/>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
-      <c r="AC19">
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AE19">
         <v>12.7</v>
       </c>
-      <c r="AD19">
+      <c r="AF19">
         <v>15</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <v>20</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>10</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1997</v>
       </c>
@@ -54270,56 +54291,62 @@
       <c r="F20">
         <v>81.142857140000004</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20">
+        <v>846</v>
+      </c>
+      <c r="H20">
+        <v>192.96</v>
+      </c>
+      <c r="I20" s="38">
         <f t="shared" si="0"/>
-        <v>11601.668857139999</v>
-      </c>
-      <c r="H20" s="38">
+        <v>12640.628857139998</v>
+      </c>
+      <c r="J20" s="38">
         <f t="shared" si="1"/>
-        <v>12529.802365711199</v>
-      </c>
-      <c r="I20" s="38">
+        <v>12640.628857139998</v>
+      </c>
+      <c r="K20" s="38">
         <f t="shared" si="2"/>
         <v>128.80000000000001</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="38">
+      <c r="L20" s="39"/>
+      <c r="M20" s="38">
         <f t="shared" si="3"/>
-        <v>97.281074267944078</v>
-      </c>
-      <c r="L20" s="38">
+        <v>98.141528393944071</v>
+      </c>
+      <c r="N20" s="38">
         <v>116.8479943</v>
       </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
       <c r="O20" s="38"/>
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
       <c r="S20" s="38"/>
-      <c r="T20" s="39"/>
+      <c r="T20" s="38"/>
       <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
+      <c r="V20" s="39"/>
       <c r="W20" s="38"/>
       <c r="X20" s="38"/>
       <c r="Y20" s="38"/>
-      <c r="AC20">
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AE20">
         <v>12.88</v>
       </c>
-      <c r="AD20">
+      <c r="AF20">
         <v>19</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <v>23</v>
       </c>
-      <c r="AF20">
+      <c r="AH20">
         <v>15</v>
       </c>
-      <c r="AG20">
+      <c r="AI20">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1998</v>
       </c>
@@ -54338,56 +54365,62 @@
       <c r="F21">
         <v>77.714285709999999</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21">
+        <v>846</v>
+      </c>
+      <c r="H21">
+        <v>199.44</v>
+      </c>
+      <c r="I21" s="38">
         <f t="shared" si="0"/>
-        <v>11421.977242410001</v>
-      </c>
-      <c r="H21" s="38">
+        <v>12467.417242410002</v>
+      </c>
+      <c r="J21" s="38">
         <f t="shared" si="1"/>
-        <v>12335.735421802801</v>
-      </c>
-      <c r="I21" s="38">
+        <v>12467.417242410002</v>
+      </c>
+      <c r="K21" s="38">
         <f t="shared" si="2"/>
         <v>130.6</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="38">
+      <c r="L21" s="39"/>
+      <c r="M21" s="38">
         <f t="shared" si="3"/>
-        <v>94.454329416560498</v>
-      </c>
-      <c r="L21" s="38">
+        <v>95.462612882159277</v>
+      </c>
+      <c r="N21" s="38">
         <v>114.36661460000001</v>
       </c>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
       <c r="S21" s="38"/>
-      <c r="T21" s="39"/>
+      <c r="T21" s="38"/>
       <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
+      <c r="V21" s="39"/>
       <c r="W21" s="38"/>
       <c r="X21" s="38"/>
       <c r="Y21" s="38"/>
-      <c r="AC21">
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AE21">
         <v>13.06</v>
       </c>
-      <c r="AD21">
+      <c r="AF21">
         <v>19</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
         <v>23</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <v>15</v>
       </c>
-      <c r="AG21">
+      <c r="AI21">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1999</v>
       </c>
@@ -54406,56 +54439,62 @@
       <c r="F22">
         <v>74.285714290000001</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22">
+        <v>846</v>
+      </c>
+      <c r="H22">
+        <v>205.92</v>
+      </c>
+      <c r="I22" s="38">
         <f t="shared" si="0"/>
-        <v>11346.239199690001</v>
-      </c>
-      <c r="H22" s="38">
+        <v>12398.159199690001</v>
+      </c>
+      <c r="J22" s="38">
         <f t="shared" si="1"/>
-        <v>12253.938335665202</v>
-      </c>
-      <c r="I22" s="38">
+        <v>12398.159199690001</v>
+      </c>
+      <c r="K22" s="38">
         <f t="shared" si="2"/>
         <v>132.4</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="38">
+      <c r="L22" s="39"/>
+      <c r="M22" s="38">
         <f t="shared" si="3"/>
-        <v>92.55240434792448</v>
-      </c>
-      <c r="L22" s="38">
+        <v>93.641685798262841</v>
+      </c>
+      <c r="N22" s="38">
         <v>111.9379294</v>
       </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
       <c r="S22" s="38"/>
-      <c r="T22" s="39"/>
+      <c r="T22" s="38"/>
       <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
+      <c r="V22" s="39"/>
       <c r="W22" s="38"/>
       <c r="X22" s="38"/>
       <c r="Y22" s="38"/>
-      <c r="AC22">
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AE22">
         <v>13.24</v>
       </c>
-      <c r="AD22">
+      <c r="AF22">
         <v>19</v>
       </c>
-      <c r="AE22">
+      <c r="AG22">
         <v>23</v>
       </c>
-      <c r="AF22">
+      <c r="AH22">
         <v>15</v>
       </c>
-      <c r="AG22">
+      <c r="AI22">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2000</v>
       </c>
@@ -54474,58 +54513,64 @@
       <c r="F23">
         <v>45.34857143</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23">
+        <v>846</v>
+      </c>
+      <c r="H23">
+        <v>212.4</v>
+      </c>
+      <c r="I23" s="38">
         <f t="shared" si="0"/>
-        <v>11249.92969253</v>
-      </c>
-      <c r="H23" s="38">
+        <v>12308.32969253</v>
+      </c>
+      <c r="J23" s="38">
         <f t="shared" si="1"/>
-        <v>12149.924067932401</v>
-      </c>
-      <c r="I23" s="38">
+        <v>12308.32969253</v>
+      </c>
+      <c r="K23" s="38">
         <f t="shared" si="2"/>
         <v>134.19999999999999</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="38">
+      <c r="L23" s="39"/>
+      <c r="M23" s="38">
         <f t="shared" si="3"/>
-        <v>90.535946854935929</v>
-      </c>
-      <c r="L23" s="38">
+        <v>91.716316635842034</v>
+      </c>
+      <c r="N23" s="38">
         <v>109.5608196</v>
       </c>
-      <c r="M23" s="38">
+      <c r="O23" s="38">
         <v>110</v>
       </c>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
       <c r="S23" s="38"/>
-      <c r="T23" s="39"/>
+      <c r="T23" s="38"/>
       <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
+      <c r="V23" s="39"/>
       <c r="W23" s="38"/>
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
-      <c r="AC23">
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AE23">
         <v>13.42</v>
       </c>
-      <c r="AD23">
+      <c r="AF23">
         <v>31</v>
       </c>
-      <c r="AE23">
+      <c r="AG23">
         <v>36</v>
       </c>
-      <c r="AF23">
+      <c r="AH23">
         <v>25</v>
       </c>
-      <c r="AG23">
+      <c r="AI23">
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -54544,58 +54589,64 @@
       <c r="F24">
         <v>43.154285710000003</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24">
+        <v>846</v>
+      </c>
+      <c r="H24">
+        <v>218.88</v>
+      </c>
+      <c r="I24" s="38">
         <f t="shared" si="0"/>
-        <v>11184.671303610001</v>
-      </c>
-      <c r="H24" s="38">
+        <v>12249.55130361</v>
+      </c>
+      <c r="J24" s="38">
         <f t="shared" si="1"/>
-        <v>12079.445007898801</v>
-      </c>
-      <c r="I24" s="38">
+        <v>12249.55130361</v>
+      </c>
+      <c r="K24" s="38">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="J24" s="39"/>
-      <c r="K24" s="38">
+      <c r="L24" s="39"/>
+      <c r="M24" s="38">
         <f t="shared" si="3"/>
-        <v>88.819448587491181</v>
-      </c>
-      <c r="L24" s="38">
+        <v>90.070230173602937</v>
+      </c>
+      <c r="N24" s="38">
         <v>107.23419010000001</v>
       </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
       <c r="O24" s="38"/>
       <c r="P24" s="38"/>
-      <c r="Q24" s="38">
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="39"/>
+      <c r="T24" s="38"/>
       <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
+      <c r="V24" s="39"/>
       <c r="W24" s="38"/>
       <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
-      <c r="AC24">
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AE24">
         <v>13.6</v>
       </c>
-      <c r="AD24">
+      <c r="AF24">
         <v>31</v>
       </c>
-      <c r="AE24">
+      <c r="AG24">
         <v>36</v>
       </c>
-      <c r="AF24">
+      <c r="AH24">
         <v>25</v>
       </c>
-      <c r="AG24">
+      <c r="AI24">
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -54614,58 +54665,64 @@
       <c r="F25">
         <v>40.96</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25">
+        <v>846</v>
+      </c>
+      <c r="H25">
+        <v>225.36</v>
+      </c>
+      <c r="I25" s="38">
         <f t="shared" si="0"/>
-        <v>11123.194776599999</v>
-      </c>
-      <c r="H25" s="38">
+        <v>12194.5547766</v>
+      </c>
+      <c r="J25" s="38">
         <f t="shared" si="1"/>
-        <v>12013.050358728</v>
-      </c>
-      <c r="I25" s="38">
+        <v>12194.5547766</v>
+      </c>
+      <c r="K25" s="38">
         <f t="shared" si="2"/>
         <v>137.2222222</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="38">
+      <c r="L25" s="39"/>
+      <c r="M25" s="38">
         <f t="shared" si="3"/>
-        <v>87.544496555514897</v>
-      </c>
-      <c r="L25" s="38">
+        <v>88.867200815525052</v>
+      </c>
+      <c r="N25" s="38">
         <v>104.9569687</v>
       </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
       <c r="O25" s="38"/>
       <c r="P25" s="38"/>
-      <c r="Q25" s="38">
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="39"/>
+      <c r="T25" s="38"/>
       <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
+      <c r="V25" s="39"/>
       <c r="W25" s="38"/>
       <c r="X25" s="38"/>
       <c r="Y25" s="38"/>
-      <c r="AC25">
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AE25">
         <v>13.722222220000001</v>
       </c>
-      <c r="AD25">
+      <c r="AF25">
         <v>31</v>
       </c>
-      <c r="AE25">
+      <c r="AG25">
         <v>36</v>
       </c>
-      <c r="AF25">
+      <c r="AH25">
         <v>25</v>
       </c>
-      <c r="AG25">
+      <c r="AI25">
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -54684,60 +54741,66 @@
       <c r="F26">
         <v>38.765714289999998</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26">
+        <v>846</v>
+      </c>
+      <c r="H26">
+        <v>231.84</v>
+      </c>
+      <c r="I26" s="38">
         <f t="shared" si="0"/>
-        <v>11077.36948159</v>
-      </c>
-      <c r="H26" s="38">
+        <v>12155.20948159</v>
+      </c>
+      <c r="J26" s="38">
         <f t="shared" si="1"/>
-        <v>11963.559040117201</v>
-      </c>
-      <c r="I26" s="38">
+        <v>12155.20948159</v>
+      </c>
+      <c r="K26" s="38">
         <f t="shared" si="2"/>
         <v>138.44444439999998</v>
       </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="38">
+      <c r="L26" s="39"/>
+      <c r="M26" s="38">
         <f t="shared" si="3"/>
-        <v>86.414150397769248</v>
-      </c>
-      <c r="L26" s="38">
+        <v>87.798463378354256</v>
+      </c>
+      <c r="N26" s="38">
         <v>102.7281064</v>
       </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
       <c r="O26" s="38"/>
       <c r="P26" s="38"/>
-      <c r="Q26" s="38">
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R26" s="38">
+      <c r="T26" s="38">
         <v>102.7</v>
       </c>
-      <c r="S26" s="38"/>
-      <c r="T26" s="39"/>
       <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
+      <c r="V26" s="39"/>
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
       <c r="Y26" s="38"/>
-      <c r="AC26">
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AE26">
         <v>13.84444444</v>
       </c>
-      <c r="AD26">
+      <c r="AF26">
         <v>31</v>
       </c>
-      <c r="AE26">
+      <c r="AG26">
         <v>36</v>
       </c>
-      <c r="AF26">
+      <c r="AH26">
         <v>25</v>
       </c>
-      <c r="AG26">
+      <c r="AI26">
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2004</v>
       </c>
@@ -54756,60 +54819,66 @@
       <c r="F27">
         <v>36.571428570000002</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27">
+        <v>846</v>
+      </c>
+      <c r="H27">
+        <v>238.0421533</v>
+      </c>
+      <c r="I27" s="38">
         <f t="shared" si="0"/>
-        <v>10996.66669057</v>
-      </c>
-      <c r="H27" s="38">
+        <v>12080.708843870001</v>
+      </c>
+      <c r="J27" s="38">
         <f t="shared" si="1"/>
-        <v>11876.400025815601</v>
-      </c>
-      <c r="I27" s="38">
+        <v>12080.708843870001</v>
+      </c>
+      <c r="K27" s="38">
         <f t="shared" si="2"/>
         <v>139.66666670000001</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="38">
+      <c r="L27" s="39"/>
+      <c r="M27" s="38">
         <f t="shared" si="3"/>
-        <v>85.03389037933988</v>
-      </c>
-      <c r="L27" s="38">
+        <v>86.4967220118385</v>
+      </c>
+      <c r="N27" s="38">
         <v>100.5465761</v>
       </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
       <c r="O27" s="38"/>
       <c r="P27" s="38"/>
-      <c r="Q27" s="38">
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R27" s="38">
+      <c r="T27" s="38">
         <v>102.7</v>
       </c>
-      <c r="S27" s="38"/>
-      <c r="T27" s="39"/>
       <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
+      <c r="V27" s="39"/>
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
       <c r="Y27" s="38"/>
-      <c r="AC27">
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AE27">
         <v>13.96666667</v>
       </c>
-      <c r="AD27">
+      <c r="AF27">
         <v>31</v>
       </c>
-      <c r="AE27">
+      <c r="AG27">
         <v>36</v>
       </c>
-      <c r="AF27">
+      <c r="AH27">
         <v>25</v>
       </c>
-      <c r="AG27">
+      <c r="AI27">
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -54828,64 +54897,70 @@
       <c r="F28">
         <v>34.377142859999999</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28">
+        <v>846</v>
+      </c>
+      <c r="H28">
+        <v>244.22710620000001</v>
+      </c>
+      <c r="I28" s="38">
         <f t="shared" si="0"/>
-        <v>10735.835995859999</v>
-      </c>
-      <c r="H28" s="38">
+        <v>11826.063102059999</v>
+      </c>
+      <c r="J28" s="38">
         <f t="shared" si="1"/>
-        <v>11594.702875528799</v>
-      </c>
-      <c r="I28" s="38">
+        <v>11826.063102059999</v>
+      </c>
+      <c r="K28" s="38">
         <f t="shared" si="2"/>
         <v>140.88888890000001</v>
       </c>
-      <c r="J28" s="39"/>
-      <c r="K28" s="38">
+      <c r="L28" s="39"/>
+      <c r="M28" s="38">
         <f t="shared" si="3"/>
-        <v>82.296786964928629</v>
-      </c>
-      <c r="L28" s="38">
+        <v>83.938933683080521</v>
+      </c>
+      <c r="N28" s="38">
         <v>98.411372709999995</v>
       </c>
-      <c r="M28" s="38">
+      <c r="O28" s="38">
         <v>98</v>
       </c>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38">
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="S28" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R28" s="38">
+      <c r="T28" s="38">
         <v>102.7</v>
       </c>
-      <c r="S28" s="38"/>
-      <c r="T28" s="39"/>
       <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
+      <c r="V28" s="39"/>
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
       <c r="Y28" s="38"/>
-      <c r="AC28">
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AE28">
         <v>14.08888889</v>
       </c>
-      <c r="AD28">
+      <c r="AF28">
         <v>31</v>
       </c>
-      <c r="AE28">
+      <c r="AG28">
         <v>36</v>
       </c>
-      <c r="AF28">
+      <c r="AH28">
         <v>25</v>
       </c>
-      <c r="AG28">
+      <c r="AI28">
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2006</v>
       </c>
@@ -54904,62 +54979,68 @@
       <c r="F29">
         <v>32.182857140000003</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29">
+        <v>846</v>
+      </c>
+      <c r="H29">
+        <v>270.84237130000002</v>
+      </c>
+      <c r="I29" s="38">
         <f t="shared" si="0"/>
-        <v>10586.83833814</v>
-      </c>
-      <c r="H29" s="38">
+        <v>11703.680709439999</v>
+      </c>
+      <c r="J29" s="38">
         <f t="shared" si="1"/>
-        <v>11433.7854051912</v>
-      </c>
-      <c r="I29" s="38">
+        <v>11703.680709439999</v>
+      </c>
+      <c r="K29" s="38">
         <f t="shared" si="2"/>
         <v>142.11111109999999</v>
       </c>
-      <c r="J29" s="39"/>
-      <c r="K29" s="38">
+      <c r="L29" s="39"/>
+      <c r="M29" s="38">
         <f t="shared" si="3"/>
-        <v>80.456660402475748</v>
-      </c>
-      <c r="L29" s="38">
+        <v>82.355845498980131</v>
+      </c>
+      <c r="N29" s="38">
         <v>96.321512409999997</v>
       </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
       <c r="O29" s="38"/>
-      <c r="P29" s="38">
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q29" s="38">
+      <c r="S29" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R29" s="38">
+      <c r="T29" s="38">
         <v>102.7</v>
       </c>
-      <c r="S29" s="38"/>
-      <c r="T29" s="39"/>
       <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
+      <c r="V29" s="39"/>
       <c r="W29" s="38"/>
       <c r="X29" s="38"/>
       <c r="Y29" s="38"/>
-      <c r="AC29">
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AE29">
         <v>14.211111109999999</v>
       </c>
-      <c r="AD29">
+      <c r="AF29">
         <v>31</v>
       </c>
-      <c r="AE29">
+      <c r="AG29">
         <v>36</v>
       </c>
-      <c r="AF29">
+      <c r="AH29">
         <v>25</v>
       </c>
-      <c r="AG29">
+      <c r="AI29">
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2007</v>
       </c>
@@ -54978,64 +55059,70 @@
       <c r="F30">
         <v>29.98857143</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30">
+        <v>846</v>
+      </c>
+      <c r="H30">
+        <v>297.39114389999997</v>
+      </c>
+      <c r="I30" s="38">
         <f t="shared" si="0"/>
-        <v>10532.556731430001</v>
-      </c>
-      <c r="H30" s="38">
+        <v>11675.947875330001</v>
+      </c>
+      <c r="J30" s="38">
         <f t="shared" si="1"/>
-        <v>11375.161269944401</v>
-      </c>
-      <c r="I30" s="38">
+        <v>11675.947875330001</v>
+      </c>
+      <c r="K30" s="38">
         <f t="shared" si="2"/>
         <v>143.33333329999999</v>
       </c>
-      <c r="J30" s="39"/>
-      <c r="K30" s="38">
+      <c r="L30" s="39"/>
+      <c r="M30" s="38">
         <f t="shared" si="3"/>
-        <v>79.361590273882243</v>
-      </c>
-      <c r="L30" s="38">
+        <v>81.460101474734913</v>
+      </c>
+      <c r="N30" s="38">
         <v>94.276032310000005</v>
-      </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38">
-        <v>102.3</v>
       </c>
       <c r="O30" s="38"/>
       <c r="P30" s="38">
+        <v>102.3</v>
+      </c>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="S30" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R30" s="38">
+      <c r="T30" s="38">
         <v>102.7</v>
       </c>
-      <c r="S30" s="38"/>
-      <c r="T30" s="39"/>
       <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
+      <c r="V30" s="39"/>
       <c r="W30" s="38"/>
       <c r="X30" s="38"/>
       <c r="Y30" s="38"/>
-      <c r="AC30">
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AE30">
         <v>14.33333333</v>
       </c>
-      <c r="AD30">
+      <c r="AF30">
         <v>31</v>
       </c>
-      <c r="AE30">
+      <c r="AG30">
         <v>36</v>
       </c>
-      <c r="AF30">
+      <c r="AH30">
         <v>25</v>
       </c>
-      <c r="AG30">
+      <c r="AI30">
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -55054,64 +55141,70 @@
       <c r="F31">
         <v>27.79428571</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31">
+        <v>846</v>
+      </c>
+      <c r="H31">
+        <v>323.87268519999998</v>
+      </c>
+      <c r="I31" s="38">
         <f t="shared" si="0"/>
-        <v>10479.71451071</v>
-      </c>
-      <c r="H31" s="38">
+        <v>11649.58719591</v>
+      </c>
+      <c r="J31" s="38">
         <f t="shared" si="1"/>
-        <v>11318.091671566801</v>
-      </c>
-      <c r="I31" s="38">
+        <v>11649.58719591</v>
+      </c>
+      <c r="K31" s="38">
         <f t="shared" si="2"/>
         <v>144.55555560000002</v>
       </c>
-      <c r="J31" s="39"/>
-      <c r="K31" s="38">
+      <c r="L31" s="39"/>
+      <c r="M31" s="38">
         <f t="shared" si="3"/>
-        <v>78.295791708518735</v>
-      </c>
-      <c r="L31" s="38">
+        <v>80.588996718642889</v>
+      </c>
+      <c r="N31" s="38">
         <v>92.273989950000001</v>
-      </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38">
-        <v>102.3</v>
       </c>
       <c r="O31" s="38"/>
       <c r="P31" s="38">
+        <v>102.3</v>
+      </c>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q31" s="38">
+      <c r="S31" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R31" s="38">
+      <c r="T31" s="38">
         <v>102.7</v>
       </c>
-      <c r="S31" s="38"/>
-      <c r="T31" s="39"/>
       <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
+      <c r="V31" s="39"/>
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
       <c r="Y31" s="38"/>
-      <c r="AC31">
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AE31">
         <v>14.455555560000001</v>
       </c>
-      <c r="AD31">
+      <c r="AF31">
         <v>31</v>
       </c>
-      <c r="AE31">
+      <c r="AG31">
         <v>36</v>
       </c>
-      <c r="AF31">
+      <c r="AH31">
         <v>25</v>
       </c>
-      <c r="AG31">
+      <c r="AI31">
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -55130,67 +55223,73 @@
       <c r="F32">
         <v>25.6</v>
       </c>
-      <c r="G32" s="38">
-        <f>SUM(B32:F32)</f>
-        <v>10451.49639</v>
-      </c>
-      <c r="H32" s="38">
+      <c r="G32">
+        <v>846</v>
+      </c>
+      <c r="H32">
+        <v>350.28624539999998</v>
+      </c>
+      <c r="I32" s="38">
+        <f t="shared" si="0"/>
+        <v>11647.782635400001</v>
+      </c>
+      <c r="J32" s="38">
         <f t="shared" si="1"/>
-        <v>11287.616101200001</v>
-      </c>
-      <c r="I32" s="38">
+        <v>11647.782635400001</v>
+      </c>
+      <c r="K32" s="38">
         <f t="shared" si="2"/>
         <v>145.7777778</v>
       </c>
-      <c r="J32" s="39"/>
-      <c r="K32" s="38">
+      <c r="L32" s="39"/>
+      <c r="M32" s="38">
         <f t="shared" si="3"/>
-        <v>77.430293365330755</v>
-      </c>
-      <c r="L32" s="38">
+        <v>79.900947944069983</v>
+      </c>
+      <c r="N32" s="38">
         <v>90.314462890000001</v>
-      </c>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38">
-        <v>102.3</v>
       </c>
       <c r="O32" s="38"/>
       <c r="P32" s="38">
+        <v>102.3</v>
+      </c>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q32" s="38">
+      <c r="S32" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R32" s="38">
+      <c r="T32" s="38">
         <v>102.7</v>
       </c>
-      <c r="S32" s="38"/>
-      <c r="T32" s="39"/>
       <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
+      <c r="V32" s="39"/>
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
       <c r="Y32" s="38"/>
-      <c r="AC32">
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AE32">
         <v>14.57777778</v>
       </c>
-      <c r="AD32">
+      <c r="AF32">
         <v>31</v>
       </c>
-      <c r="AE32">
+      <c r="AG32">
         <v>36</v>
       </c>
-      <c r="AF32">
+      <c r="AH32">
         <v>25</v>
       </c>
-      <c r="AG32">
+      <c r="AI32">
         <v>0.6</v>
       </c>
-      <c r="AH32">
+      <c r="AJ32">
         <v>15.3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -55209,72 +55308,78 @@
       <c r="F33">
         <v>12.327416169999999</v>
       </c>
-      <c r="G33" s="38">
-        <f t="shared" ref="G33:G73" si="4">SUM(B33:F33)</f>
-        <v>10424.07407517</v>
-      </c>
-      <c r="H33" s="38">
+      <c r="G33">
+        <v>846</v>
+      </c>
+      <c r="H33">
+        <v>376.63106340000002</v>
+      </c>
+      <c r="I33" s="38">
+        <f t="shared" si="0"/>
+        <v>11646.70513857</v>
+      </c>
+      <c r="J33" s="38">
         <f t="shared" si="1"/>
-        <v>11258.0000011836</v>
-      </c>
-      <c r="I33" s="38">
+        <v>11646.70513857</v>
+      </c>
+      <c r="K33" s="38">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="38">
+      <c r="L33" s="39"/>
+      <c r="M33" s="38">
         <f t="shared" si="3"/>
-        <v>76.585034021657137</v>
-      </c>
-      <c r="L33" s="38">
+        <v>79.229286656938768</v>
+      </c>
+      <c r="N33" s="38">
         <v>88.396548280000005</v>
       </c>
-      <c r="M33" s="38">
+      <c r="O33" s="38">
         <v>95</v>
       </c>
-      <c r="N33" s="38">
+      <c r="P33" s="38">
         <v>102.3</v>
       </c>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38">
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q33" s="38">
+      <c r="S33" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R33" s="38">
+      <c r="T33" s="38">
         <v>102.7</v>
       </c>
-      <c r="S33" s="38"/>
-      <c r="T33" s="39"/>
       <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
+      <c r="V33" s="39"/>
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
       <c r="Y33" s="38"/>
-      <c r="AC33">
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AE33">
         <v>14.7</v>
       </c>
-      <c r="AD33">
+      <c r="AF33">
         <v>31</v>
       </c>
-      <c r="AE33">
+      <c r="AG33">
         <v>36</v>
       </c>
-      <c r="AF33">
+      <c r="AH33">
         <v>25</v>
       </c>
-      <c r="AG33">
+      <c r="AI33">
         <v>0.3</v>
       </c>
-      <c r="AH33">
+      <c r="AJ33">
         <v>15.3</v>
       </c>
-      <c r="AI33">
+      <c r="AK33">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -55293,67 +55398,73 @@
       <c r="F34">
         <v>10.272846810000001</v>
       </c>
-      <c r="G34" s="38">
-        <f t="shared" si="4"/>
-        <v>10401.461976809998</v>
-      </c>
-      <c r="H34" s="38">
+      <c r="G34">
+        <v>846</v>
+      </c>
+      <c r="H34">
+        <v>402.90636699999999</v>
+      </c>
+      <c r="I34" s="38">
+        <f t="shared" si="0"/>
+        <v>11650.368343809998</v>
+      </c>
+      <c r="J34" s="38">
         <f t="shared" si="1"/>
-        <v>11233.578934954799</v>
-      </c>
-      <c r="I34" s="38">
+        <v>11650.368343809998</v>
+      </c>
+      <c r="K34" s="38">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="J34" s="39"/>
-      <c r="K34" s="38">
+      <c r="L34" s="39"/>
+      <c r="M34" s="38">
         <f t="shared" si="3"/>
-        <v>74.394562483144369</v>
-      </c>
-      <c r="L34" s="38">
+        <v>77.154757243774824</v>
+      </c>
+      <c r="N34" s="38">
         <v>86.519362419999993</v>
-      </c>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38">
-        <v>102.3</v>
       </c>
       <c r="O34" s="38"/>
       <c r="P34" s="38">
+        <v>102.3</v>
+      </c>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q34" s="38">
+      <c r="S34" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R34" s="38">
+      <c r="T34" s="38">
         <v>102.7</v>
       </c>
-      <c r="S34" s="38"/>
-      <c r="T34" s="39"/>
       <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
+      <c r="V34" s="39"/>
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
       <c r="Y34" s="38"/>
-      <c r="AC34">
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AE34">
         <v>15.1</v>
       </c>
-      <c r="AD34">
+      <c r="AF34">
         <v>31</v>
       </c>
-      <c r="AE34">
+      <c r="AG34">
         <v>36</v>
       </c>
-      <c r="AF34">
+      <c r="AH34">
         <v>25</v>
       </c>
-      <c r="AG34">
+      <c r="AI34">
         <v>0.3</v>
       </c>
-      <c r="AH34">
+      <c r="AJ34">
         <v>15.3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2012</v>
       </c>
@@ -55372,71 +55483,77 @@
       <c r="F35">
         <v>8.2182774490000003</v>
       </c>
-      <c r="G35" s="38">
-        <f t="shared" si="4"/>
-        <v>10475.800475448999</v>
-      </c>
-      <c r="H35" s="38">
+      <c r="G35">
+        <v>846</v>
+      </c>
+      <c r="H35">
+        <v>424.82025850000002</v>
+      </c>
+      <c r="I35" s="38">
+        <f t="shared" si="0"/>
+        <v>11746.620733948999</v>
+      </c>
+      <c r="J35" s="38">
         <f t="shared" si="1"/>
-        <v>11313.864513484919</v>
-      </c>
-      <c r="I35" s="38">
+        <v>11746.620733948999</v>
+      </c>
+      <c r="K35" s="38">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="38">
+      <c r="L35" s="39"/>
+      <c r="M35" s="38">
         <f t="shared" si="3"/>
-        <v>73.466652684967002</v>
-      </c>
-      <c r="L35" s="38">
+        <v>76.276758012655833</v>
+      </c>
+      <c r="N35" s="38">
         <v>84.682040420000007</v>
       </c>
-      <c r="M35" s="38">
+      <c r="O35" s="38">
         <v>78</v>
       </c>
-      <c r="N35" s="38">
+      <c r="P35" s="38">
         <v>102.3</v>
       </c>
-      <c r="O35" s="38">
+      <c r="Q35" s="38">
         <v>102</v>
       </c>
-      <c r="P35" s="38">
+      <c r="R35" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q35" s="38">
+      <c r="S35" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R35" s="38">
+      <c r="T35" s="38">
         <v>102.7</v>
       </c>
-      <c r="S35" s="38"/>
-      <c r="T35" s="39"/>
       <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
+      <c r="V35" s="39"/>
       <c r="W35" s="38"/>
       <c r="X35" s="38"/>
       <c r="Y35" s="38"/>
-      <c r="AC35">
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AE35">
         <v>15.4</v>
       </c>
-      <c r="AD35">
+      <c r="AF35">
         <v>31</v>
       </c>
-      <c r="AE35">
+      <c r="AG35">
         <v>36</v>
       </c>
-      <c r="AF35">
+      <c r="AH35">
         <v>25</v>
       </c>
-      <c r="AG35">
+      <c r="AI35">
         <v>0.3</v>
       </c>
-      <c r="AH35">
+      <c r="AJ35">
         <v>15.3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2013</v>
       </c>
@@ -55455,69 +55572,75 @@
       <c r="F36">
         <v>5.7527942139999997</v>
       </c>
-      <c r="G36" s="38">
-        <f t="shared" si="4"/>
-        <v>10209.806922214</v>
-      </c>
-      <c r="H36" s="38">
+      <c r="G36">
+        <v>846</v>
+      </c>
+      <c r="H36">
+        <v>446.14037739999998</v>
+      </c>
+      <c r="I36" s="38">
+        <f t="shared" si="0"/>
+        <v>11501.947299613999</v>
+      </c>
+      <c r="J36" s="38">
         <f t="shared" si="1"/>
-        <v>11026.591475991121</v>
-      </c>
-      <c r="I36" s="38">
+        <v>11501.947299613999</v>
+      </c>
+      <c r="K36" s="38">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="J36" s="39"/>
-      <c r="K36" s="38">
+      <c r="L36" s="39"/>
+      <c r="M36" s="38">
         <f t="shared" si="3"/>
-        <v>68.916196724944513</v>
-      </c>
-      <c r="L36" s="38">
+        <v>71.88717062258749</v>
+      </c>
+      <c r="N36" s="38">
         <v>82.883735720000004</v>
       </c>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38">
+      <c r="O36" s="38"/>
+      <c r="P36" s="38">
         <v>102.3</v>
       </c>
-      <c r="O36" s="38">
+      <c r="Q36" s="38">
         <v>102</v>
       </c>
-      <c r="P36" s="38">
+      <c r="R36" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q36" s="38">
+      <c r="S36" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R36" s="38">
+      <c r="T36" s="38">
         <v>102.7</v>
       </c>
-      <c r="S36" s="38"/>
-      <c r="T36" s="39"/>
       <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
+      <c r="V36" s="39"/>
       <c r="W36" s="38"/>
       <c r="X36" s="38"/>
       <c r="Y36" s="38"/>
-      <c r="AC36">
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AE36">
         <v>16</v>
       </c>
-      <c r="AD36">
+      <c r="AF36">
         <v>31</v>
       </c>
-      <c r="AE36">
+      <c r="AG36">
         <v>36</v>
       </c>
-      <c r="AF36">
+      <c r="AH36">
         <v>25</v>
       </c>
-      <c r="AG36">
+      <c r="AI36">
         <v>0.3</v>
       </c>
-      <c r="AH36">
+      <c r="AJ36">
         <v>15.3</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2014</v>
       </c>
@@ -55536,69 +55659,75 @@
       <c r="F37">
         <v>5.3418803419999996</v>
       </c>
-      <c r="G37" s="38">
-        <f t="shared" si="4"/>
-        <v>10315.377606342001</v>
-      </c>
-      <c r="H37" s="38">
+      <c r="G37">
+        <v>848.09</v>
+      </c>
+      <c r="H37">
+        <v>450.12</v>
+      </c>
+      <c r="I37" s="38">
+        <f t="shared" si="0"/>
+        <v>11613.587606342002</v>
+      </c>
+      <c r="J37" s="38">
         <f t="shared" si="1"/>
-        <v>11140.607814849362</v>
-      </c>
-      <c r="I37" s="38">
+        <v>11613.587606342002</v>
+      </c>
+      <c r="K37" s="38">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="38">
+      <c r="L37" s="39"/>
+      <c r="M37" s="38">
         <f t="shared" si="3"/>
-        <v>68.347287207664792</v>
-      </c>
-      <c r="L37" s="38">
+        <v>71.249003719889586</v>
+      </c>
+      <c r="N37" s="38">
         <v>81.123619750000003</v>
       </c>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38">
+      <c r="O37" s="38"/>
+      <c r="P37" s="38">
         <v>102.3</v>
       </c>
-      <c r="O37" s="38">
+      <c r="Q37" s="38">
         <v>102</v>
       </c>
-      <c r="P37" s="38">
+      <c r="R37" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q37" s="38">
+      <c r="S37" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R37" s="38">
+      <c r="T37" s="38">
         <v>102.7</v>
       </c>
-      <c r="S37" s="38"/>
-      <c r="T37" s="39"/>
       <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
+      <c r="V37" s="39"/>
       <c r="W37" s="38"/>
       <c r="X37" s="38"/>
       <c r="Y37" s="38"/>
-      <c r="AC37">
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AE37">
         <v>16.3</v>
       </c>
-      <c r="AD37">
+      <c r="AF37">
         <v>31</v>
       </c>
-      <c r="AE37">
+      <c r="AG37">
         <v>36</v>
       </c>
-      <c r="AF37">
+      <c r="AH37">
         <v>25</v>
       </c>
-      <c r="AG37">
+      <c r="AI37">
         <v>0.3</v>
       </c>
-      <c r="AH37">
+      <c r="AJ37">
         <v>15.3</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -55617,74 +55746,80 @@
       <c r="F38">
         <v>4.5200525970000003</v>
       </c>
-      <c r="G38" s="38">
-        <f t="shared" si="4"/>
-        <v>10150.433136596999</v>
-      </c>
-      <c r="H38" s="38">
+      <c r="G38">
+        <v>850.28</v>
+      </c>
+      <c r="H38">
+        <v>469.04871969999999</v>
+      </c>
+      <c r="I38" s="38">
+        <f t="shared" si="0"/>
+        <v>11469.761856297</v>
+      </c>
+      <c r="J38" s="38">
         <f t="shared" si="1"/>
-        <v>10962.46778752476</v>
-      </c>
-      <c r="I38" s="38">
+        <v>11469.761856297</v>
+      </c>
+      <c r="K38" s="38">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="J38" s="39"/>
-      <c r="K38" s="38">
+      <c r="L38" s="39"/>
+      <c r="M38" s="38">
         <f t="shared" si="3"/>
-        <v>64.48510463249859</v>
-      </c>
-      <c r="L38" s="38">
+        <v>67.469187389982352</v>
+      </c>
+      <c r="N38" s="38">
         <v>79.40088154</v>
       </c>
-      <c r="M38" s="38">
+      <c r="O38" s="38">
         <v>65</v>
       </c>
-      <c r="N38" s="38">
+      <c r="P38" s="38">
         <v>102.3</v>
       </c>
-      <c r="O38" s="38">
+      <c r="Q38" s="38">
         <v>102</v>
       </c>
-      <c r="P38" s="38">
+      <c r="R38" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q38" s="38">
+      <c r="S38" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R38" s="38">
+      <c r="T38" s="38">
         <v>102.7</v>
       </c>
-      <c r="S38" s="38"/>
-      <c r="T38" s="39"/>
       <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
+      <c r="V38" s="39"/>
       <c r="W38" s="38"/>
       <c r="X38" s="38"/>
       <c r="Y38" s="38"/>
-      <c r="AC38">
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AE38">
         <v>17</v>
       </c>
-      <c r="AD38">
+      <c r="AF38">
         <v>31</v>
       </c>
-      <c r="AE38">
+      <c r="AG38">
         <v>36</v>
       </c>
-      <c r="AF38">
+      <c r="AH38">
         <v>25</v>
       </c>
-      <c r="AG38">
+      <c r="AI38">
         <v>0.3</v>
       </c>
-      <c r="AH38">
+      <c r="AJ38">
         <v>15.3</v>
       </c>
-      <c r="AI38">
+      <c r="AK38">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -55703,69 +55838,75 @@
       <c r="F39">
         <v>4.0997570090000002</v>
       </c>
-      <c r="G39" s="38">
-        <f t="shared" si="4"/>
-        <v>10000.933893009</v>
-      </c>
-      <c r="H39" s="38">
+      <c r="G39">
+        <v>852.81</v>
+      </c>
+      <c r="H39">
+        <v>488.55303370000001</v>
+      </c>
+      <c r="I39" s="38">
+        <f t="shared" si="0"/>
+        <v>11342.296926708999</v>
+      </c>
+      <c r="J39" s="38">
         <f t="shared" si="1"/>
-        <v>10801.00860444972</v>
-      </c>
-      <c r="I39" s="38">
+        <v>11342.296926708999</v>
+      </c>
+      <c r="K39" s="38">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="J39" s="39"/>
-      <c r="K39" s="38">
+      <c r="L39" s="39"/>
+      <c r="M39" s="38">
         <f t="shared" si="3"/>
-        <v>61.720049168284113</v>
-      </c>
-      <c r="L39" s="38">
+        <v>64.813125295479992</v>
+      </c>
+      <c r="N39" s="38">
         <v>77.714727339999996</v>
       </c>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38">
+      <c r="O39" s="38"/>
+      <c r="P39" s="38">
         <v>102.3</v>
       </c>
-      <c r="O39" s="38">
+      <c r="Q39" s="38">
         <v>102</v>
       </c>
-      <c r="P39" s="38">
+      <c r="R39" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q39" s="38">
+      <c r="S39" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R39" s="38">
+      <c r="T39" s="38">
         <v>102.7</v>
       </c>
-      <c r="S39" s="38"/>
-      <c r="T39" s="39"/>
       <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
+      <c r="V39" s="39"/>
       <c r="W39" s="38"/>
       <c r="X39" s="38"/>
       <c r="Y39" s="38"/>
-      <c r="AC39">
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AE39">
         <v>17.5</v>
       </c>
-      <c r="AD39">
+      <c r="AF39">
         <v>31</v>
       </c>
-      <c r="AE39">
+      <c r="AG39">
         <v>36</v>
       </c>
-      <c r="AF39">
+      <c r="AH39">
         <v>25</v>
       </c>
-      <c r="AG39">
+      <c r="AI39">
         <v>0.3</v>
       </c>
-      <c r="AH39">
+      <c r="AJ39">
         <v>15.3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2017</v>
       </c>
@@ -55784,69 +55925,75 @@
       <c r="F40">
         <v>4.079110301</v>
       </c>
-      <c r="G40" s="38">
-        <f t="shared" si="4"/>
-        <v>10100.073846300998</v>
-      </c>
-      <c r="H40" s="38">
+      <c r="G40">
+        <v>847.99</v>
+      </c>
+      <c r="H40">
+        <v>480.42291669999997</v>
+      </c>
+      <c r="I40" s="38">
+        <f t="shared" si="0"/>
+        <v>11428.486763000998</v>
+      </c>
+      <c r="J40" s="38">
         <f t="shared" si="1"/>
-        <v>10908.079754005079</v>
-      </c>
-      <c r="I40" s="38">
+        <v>11428.486763000998</v>
+      </c>
+      <c r="K40" s="38">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="J40" s="39"/>
-      <c r="K40" s="38">
+      <c r="L40" s="39"/>
+      <c r="M40" s="38">
         <f t="shared" si="3"/>
-        <v>61.62756923166711</v>
-      </c>
-      <c r="L40" s="38">
+        <v>64.567721824864392</v>
+      </c>
+      <c r="N40" s="38">
         <v>76.064380240000006</v>
       </c>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38">
+      <c r="O40" s="38"/>
+      <c r="P40" s="38">
         <v>102.3</v>
       </c>
-      <c r="O40" s="38">
+      <c r="Q40" s="38">
         <v>102</v>
       </c>
-      <c r="P40" s="38">
+      <c r="R40" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q40" s="38">
+      <c r="S40" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R40" s="38">
+      <c r="T40" s="38">
         <v>102.7</v>
       </c>
-      <c r="S40" s="38"/>
-      <c r="T40" s="39"/>
       <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
+      <c r="V40" s="39"/>
       <c r="W40" s="38"/>
       <c r="X40" s="38"/>
       <c r="Y40" s="38"/>
-      <c r="AC40">
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
+      <c r="AE40">
         <v>17.7</v>
       </c>
-      <c r="AD40">
+      <c r="AF40">
         <v>31</v>
       </c>
-      <c r="AE40">
+      <c r="AG40">
         <v>36</v>
       </c>
-      <c r="AF40">
+      <c r="AH40">
         <v>25</v>
       </c>
-      <c r="AG40">
+      <c r="AI40">
         <v>0.3</v>
       </c>
-      <c r="AH40">
+      <c r="AJ40">
         <v>15.3</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -55865,69 +56012,75 @@
       <c r="F41">
         <v>4.3128338230000001</v>
       </c>
-      <c r="G41" s="38">
-        <f t="shared" si="4"/>
-        <v>10134.439229122998</v>
-      </c>
-      <c r="H41" s="38">
+      <c r="G41">
+        <v>848.95500000000004</v>
+      </c>
+      <c r="H41">
+        <v>472.89833329999999</v>
+      </c>
+      <c r="I41" s="38">
+        <f t="shared" si="0"/>
+        <v>11456.292562422997</v>
+      </c>
+      <c r="J41" s="38">
         <f t="shared" si="1"/>
-        <v>10945.194367452839</v>
-      </c>
-      <c r="I41" s="38">
+        <v>11456.292562422997</v>
+      </c>
+      <c r="K41" s="38">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="J41" s="39"/>
-      <c r="K41" s="38">
+      <c r="L41" s="39"/>
+      <c r="M41" s="38">
         <f t="shared" si="3"/>
-        <v>59.484751997026301</v>
-      </c>
-      <c r="L41" s="38">
+        <v>62.262459578385858</v>
+      </c>
+      <c r="N41" s="38">
         <v>74.449079859999998</v>
       </c>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38">
+      <c r="O41" s="38"/>
+      <c r="P41" s="38">
         <v>102.3</v>
       </c>
-      <c r="O41" s="38">
+      <c r="Q41" s="38">
         <v>102</v>
       </c>
-      <c r="P41" s="38">
+      <c r="R41" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q41" s="38">
+      <c r="S41" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R41" s="38">
+      <c r="T41" s="38">
         <v>102.7</v>
       </c>
-      <c r="S41" s="38"/>
-      <c r="T41" s="39"/>
       <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
+      <c r="V41" s="39"/>
       <c r="W41" s="38"/>
       <c r="X41" s="38"/>
       <c r="Y41" s="38"/>
-      <c r="AC41">
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AE41">
         <v>18.399999999999999</v>
       </c>
-      <c r="AD41">
+      <c r="AF41">
         <v>31</v>
       </c>
-      <c r="AE41">
+      <c r="AG41">
         <v>36</v>
       </c>
-      <c r="AF41">
+      <c r="AH41">
         <v>25</v>
       </c>
-      <c r="AG41">
+      <c r="AI41">
         <v>0.3</v>
       </c>
-      <c r="AH41">
+      <c r="AJ41">
         <v>15.3</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2019</v>
       </c>
@@ -55946,69 +56099,75 @@
       <c r="F42">
         <v>4.1473098100000003</v>
       </c>
-      <c r="G42" s="38">
-        <f t="shared" si="4"/>
-        <v>10365.696155509999</v>
-      </c>
-      <c r="H42" s="38">
+      <c r="G42">
+        <v>851.31</v>
+      </c>
+      <c r="H42">
+        <v>463.21199999999999</v>
+      </c>
+      <c r="I42" s="38">
+        <f t="shared" si="0"/>
+        <v>11680.218155509998</v>
+      </c>
+      <c r="J42" s="38">
         <f t="shared" si="1"/>
-        <v>11194.951847950799</v>
-      </c>
-      <c r="I42" s="38">
+        <v>11680.218155509998</v>
+      </c>
+      <c r="K42" s="38">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="J42" s="39"/>
-      <c r="K42" s="38">
+      <c r="L42" s="39"/>
+      <c r="M42" s="38">
         <f t="shared" si="3"/>
-        <v>58.307040874743741</v>
-      </c>
-      <c r="L42" s="38">
+        <v>60.834469559947905</v>
+      </c>
+      <c r="N42" s="38">
         <v>72.868081930000002</v>
       </c>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38">
+      <c r="O42" s="38"/>
+      <c r="P42" s="38">
         <v>102.3</v>
       </c>
-      <c r="O42" s="38">
+      <c r="Q42" s="38">
         <v>102</v>
       </c>
-      <c r="P42" s="38">
+      <c r="R42" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q42" s="38">
+      <c r="S42" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R42" s="38">
+      <c r="T42" s="38">
         <v>102.7</v>
       </c>
-      <c r="S42" s="38"/>
-      <c r="T42" s="39"/>
       <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
+      <c r="V42" s="39"/>
       <c r="W42" s="38"/>
       <c r="X42" s="38"/>
       <c r="Y42" s="38"/>
-      <c r="AC42">
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AE42">
         <v>19.2</v>
       </c>
-      <c r="AD42">
+      <c r="AF42">
         <v>31</v>
       </c>
-      <c r="AE42">
+      <c r="AG42">
         <v>36</v>
       </c>
-      <c r="AF42">
+      <c r="AH42">
         <v>25</v>
       </c>
-      <c r="AG42">
+      <c r="AI42">
         <v>0.3</v>
       </c>
-      <c r="AH42">
+      <c r="AJ42">
         <v>15.3</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -56027,76 +56186,82 @@
       <c r="F43">
         <v>3.5949654450000001</v>
       </c>
-      <c r="G43" s="38">
-        <f t="shared" si="4"/>
-        <v>10711.021287744999</v>
-      </c>
-      <c r="H43" s="38">
+      <c r="G43">
+        <v>849.44500000000005</v>
+      </c>
+      <c r="H43">
+        <v>432.53280000000001</v>
+      </c>
+      <c r="I43" s="38">
+        <f t="shared" si="0"/>
+        <v>11992.999087745</v>
+      </c>
+      <c r="J43" s="38">
         <f t="shared" si="1"/>
-        <v>11567.9029907646</v>
-      </c>
-      <c r="I43" s="38">
+        <v>11992.999087745</v>
+      </c>
+      <c r="K43" s="38">
         <f t="shared" si="2"/>
         <v>202.52588490000002</v>
       </c>
-      <c r="J43" s="39"/>
-      <c r="K43" s="38">
+      <c r="L43" s="39"/>
+      <c r="M43" s="38">
         <f t="shared" si="3"/>
-        <v>57.118145645809243</v>
-      </c>
-      <c r="L43" s="38">
+        <v>59.217117326344287</v>
+      </c>
+      <c r="N43" s="38">
         <v>71.320658019999996</v>
       </c>
-      <c r="M43" s="38">
+      <c r="O43" s="38">
         <v>65</v>
       </c>
-      <c r="N43" s="38">
+      <c r="P43" s="38">
         <v>102.3</v>
       </c>
-      <c r="O43" s="38">
+      <c r="Q43" s="38">
         <v>102</v>
       </c>
-      <c r="P43" s="38">
+      <c r="R43" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q43" s="38">
+      <c r="S43" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R43" s="38">
+      <c r="T43" s="38">
         <v>102.7</v>
       </c>
-      <c r="S43" s="38">
+      <c r="U43" s="38">
         <v>76</v>
       </c>
-      <c r="T43" s="39"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
+      <c r="V43" s="39"/>
       <c r="W43" s="38"/>
       <c r="X43" s="38"/>
       <c r="Y43" s="38"/>
-      <c r="AC43">
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AE43">
         <v>20.252588490000001</v>
       </c>
-      <c r="AD43">
+      <c r="AF43">
         <v>40</v>
       </c>
-      <c r="AE43">
+      <c r="AG43">
         <v>44</v>
       </c>
-      <c r="AF43">
+      <c r="AH43">
         <v>35</v>
       </c>
-      <c r="AG43">
+      <c r="AI43">
         <v>0.5</v>
       </c>
-      <c r="AH43">
+      <c r="AJ43">
         <v>15.3</v>
       </c>
-      <c r="AI43">
+      <c r="AK43">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -56115,71 +56280,77 @@
       <c r="F44">
         <v>3.3412788689999999</v>
       </c>
-      <c r="G44" s="38">
-        <f t="shared" si="4"/>
-        <v>10678.168171469</v>
-      </c>
-      <c r="H44" s="38">
+      <c r="G44">
+        <v>849.14499999999998</v>
+      </c>
+      <c r="H44">
+        <v>410.94400000000002</v>
+      </c>
+      <c r="I44" s="38">
+        <f t="shared" si="0"/>
+        <v>11938.257171469</v>
+      </c>
+      <c r="J44" s="38">
         <f t="shared" si="1"/>
-        <v>11532.421625186522</v>
-      </c>
-      <c r="I44" s="38">
+        <v>11938.257171469</v>
+      </c>
+      <c r="K44" s="38">
         <f t="shared" si="2"/>
         <v>208.94864799999999</v>
       </c>
-      <c r="J44" s="39"/>
-      <c r="K44" s="38">
+      <c r="L44" s="39"/>
+      <c r="M44" s="38">
         <f t="shared" si="3"/>
-        <v>55.192611847799668</v>
-      </c>
-      <c r="L44" s="38">
+        <v>57.134885943215103</v>
+      </c>
+      <c r="N44" s="38">
         <v>69.806095139999996</v>
       </c>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38">
+      <c r="O44" s="38"/>
+      <c r="P44" s="38">
         <v>102.3</v>
       </c>
-      <c r="O44" s="38">
+      <c r="Q44" s="38">
         <v>102</v>
       </c>
-      <c r="P44" s="38">
+      <c r="R44" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q44" s="38">
+      <c r="S44" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R44" s="38">
+      <c r="T44" s="38">
         <v>102.7</v>
       </c>
-      <c r="S44" s="38">
+      <c r="U44" s="38">
         <v>76</v>
       </c>
-      <c r="T44" s="39"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
+      <c r="V44" s="39"/>
       <c r="W44" s="38"/>
       <c r="X44" s="38"/>
       <c r="Y44" s="38"/>
-      <c r="AC44">
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="38"/>
+      <c r="AE44">
         <v>20.894864800000001</v>
       </c>
-      <c r="AD44">
+      <c r="AF44">
         <v>40</v>
       </c>
-      <c r="AE44">
+      <c r="AG44">
         <v>44</v>
       </c>
-      <c r="AF44">
+      <c r="AH44">
         <v>35</v>
       </c>
-      <c r="AG44">
+      <c r="AI44">
         <v>0.5</v>
       </c>
-      <c r="AH44">
+      <c r="AJ44">
         <v>15.3</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2022</v>
       </c>
@@ -56198,71 +56369,77 @@
       <c r="F45">
         <v>3.0936340219999998</v>
       </c>
-      <c r="G45" s="38">
-        <f t="shared" si="4"/>
-        <v>10723.350508022</v>
-      </c>
-      <c r="H45" s="38">
+      <c r="G45">
+        <v>839.24437499999999</v>
+      </c>
+      <c r="H45">
+        <v>400.03859999999997</v>
+      </c>
+      <c r="I45" s="38">
+        <f t="shared" si="0"/>
+        <v>11962.633483022</v>
+      </c>
+      <c r="J45" s="38">
         <f t="shared" si="1"/>
-        <v>11581.218548663761</v>
-      </c>
-      <c r="I45" s="38">
+        <v>11962.633483022</v>
+      </c>
+      <c r="K45" s="38">
         <f t="shared" si="2"/>
         <v>213.6288232</v>
       </c>
-      <c r="J45" s="39"/>
-      <c r="K45" s="38">
+      <c r="L45" s="39"/>
+      <c r="M45" s="38">
         <f t="shared" si="3"/>
-        <v>54.211872607758487</v>
-      </c>
-      <c r="L45" s="38">
+        <v>55.997282126216383</v>
+      </c>
+      <c r="N45" s="38">
         <v>68.323695470000004</v>
       </c>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38">
+      <c r="O45" s="38"/>
+      <c r="P45" s="38">
         <v>102.3</v>
       </c>
-      <c r="O45" s="38">
+      <c r="Q45" s="38">
         <v>102</v>
       </c>
-      <c r="P45" s="38">
+      <c r="R45" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q45" s="38">
+      <c r="S45" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R45" s="38">
+      <c r="T45" s="38">
         <v>102.7</v>
       </c>
-      <c r="S45" s="38">
+      <c r="U45" s="38">
         <v>76</v>
       </c>
-      <c r="T45" s="39"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
+      <c r="V45" s="39"/>
       <c r="W45" s="38"/>
       <c r="X45" s="38"/>
       <c r="Y45" s="38"/>
-      <c r="AC45">
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="38"/>
+      <c r="AE45">
         <v>21.362882320000001</v>
       </c>
-      <c r="AD45">
+      <c r="AF45">
         <v>40</v>
       </c>
-      <c r="AE45">
+      <c r="AG45">
         <v>44</v>
       </c>
-      <c r="AF45">
+      <c r="AH45">
         <v>35</v>
       </c>
-      <c r="AG45">
+      <c r="AI45">
         <v>0.5</v>
       </c>
-      <c r="AH45">
+      <c r="AJ45">
         <v>15.3</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2023</v>
       </c>
@@ -56281,71 +56458,77 @@
       <c r="F46">
         <v>2.8988638820000001</v>
       </c>
-      <c r="G46" s="38">
-        <f t="shared" si="4"/>
-        <v>10772.625575282</v>
-      </c>
-      <c r="H46" s="38">
+      <c r="G46">
+        <v>829.23500000000001</v>
+      </c>
+      <c r="H46">
+        <v>389.16559999999998</v>
+      </c>
+      <c r="I46" s="38">
+        <f t="shared" si="0"/>
+        <v>11991.026175282001</v>
+      </c>
+      <c r="J46" s="38">
         <f t="shared" si="1"/>
-        <v>11634.435621304561</v>
-      </c>
-      <c r="I46" s="38">
+        <v>11991.026175282001</v>
+      </c>
+      <c r="K46" s="38">
         <f t="shared" si="2"/>
         <v>217.3311205</v>
       </c>
-      <c r="J46" s="39"/>
-      <c r="K46" s="38">
+      <c r="L46" s="39"/>
+      <c r="M46" s="38">
         <f t="shared" si="3"/>
-        <v>53.533224300955837</v>
-      </c>
-      <c r="L46" s="38">
+        <v>55.173995089589575</v>
+      </c>
+      <c r="N46" s="38">
         <v>66.87277598</v>
       </c>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38">
+      <c r="O46" s="38"/>
+      <c r="P46" s="38">
         <v>102.3</v>
       </c>
-      <c r="O46" s="38">
+      <c r="Q46" s="38">
         <v>102</v>
       </c>
-      <c r="P46" s="38">
+      <c r="R46" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q46" s="38">
+      <c r="S46" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R46" s="38">
+      <c r="T46" s="38">
         <v>102.7</v>
       </c>
-      <c r="S46" s="38">
+      <c r="U46" s="38">
         <v>76</v>
       </c>
-      <c r="T46" s="39"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
+      <c r="V46" s="39"/>
       <c r="W46" s="38"/>
       <c r="X46" s="38"/>
       <c r="Y46" s="38"/>
-      <c r="AC46">
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="38"/>
+      <c r="AE46">
         <v>21.733112049999999</v>
       </c>
-      <c r="AD46">
+      <c r="AF46">
         <v>40</v>
       </c>
-      <c r="AE46">
+      <c r="AG46">
         <v>44</v>
       </c>
-      <c r="AF46">
+      <c r="AH46">
         <v>35</v>
       </c>
-      <c r="AG46">
+      <c r="AI46">
         <v>0.5</v>
       </c>
-      <c r="AH46">
+      <c r="AJ46">
         <v>15.3</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2024</v>
       </c>
@@ -56364,71 +56547,77 @@
       <c r="F47">
         <v>2.692895407</v>
       </c>
-      <c r="G47" s="38">
-        <f t="shared" si="4"/>
-        <v>10677.261502107001</v>
-      </c>
-      <c r="H47" s="38">
+      <c r="G47">
+        <v>801.36775</v>
+      </c>
+      <c r="H47">
+        <v>383.15249999999997</v>
+      </c>
+      <c r="I47" s="38">
+        <f t="shared" si="0"/>
+        <v>11861.781752107001</v>
+      </c>
+      <c r="J47" s="38">
         <f t="shared" si="1"/>
-        <v>11531.442422275562</v>
-      </c>
-      <c r="I47" s="38">
+        <v>11861.781752107001</v>
+      </c>
+      <c r="K47" s="38">
         <f t="shared" si="2"/>
         <v>220.40369699999999</v>
       </c>
-      <c r="J47" s="39"/>
-      <c r="K47" s="38">
+      <c r="L47" s="39"/>
+      <c r="M47" s="38">
         <f t="shared" si="3"/>
-        <v>52.31964154519406</v>
-      </c>
-      <c r="L47" s="38">
+        <v>53.818433690370455</v>
+      </c>
+      <c r="N47" s="38">
         <v>65.452668169999995</v>
       </c>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38">
+      <c r="O47" s="38"/>
+      <c r="P47" s="38">
         <v>102.3</v>
       </c>
-      <c r="O47" s="38">
+      <c r="Q47" s="38">
         <v>102</v>
       </c>
-      <c r="P47" s="38">
+      <c r="R47" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q47" s="38">
+      <c r="S47" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R47" s="38">
+      <c r="T47" s="38">
         <v>102.7</v>
       </c>
-      <c r="S47" s="38">
+      <c r="U47" s="38">
         <v>76</v>
       </c>
-      <c r="T47" s="39"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
+      <c r="V47" s="39"/>
       <c r="W47" s="38"/>
       <c r="X47" s="38"/>
       <c r="Y47" s="38"/>
-      <c r="AC47">
+      <c r="Z47" s="38"/>
+      <c r="AA47" s="38"/>
+      <c r="AE47">
         <v>22.040369699999999</v>
       </c>
-      <c r="AD47">
+      <c r="AF47">
         <v>40</v>
       </c>
-      <c r="AE47">
+      <c r="AG47">
         <v>44</v>
       </c>
-      <c r="AF47">
+      <c r="AH47">
         <v>35</v>
       </c>
-      <c r="AG47">
+      <c r="AI47">
         <v>0.5</v>
       </c>
-      <c r="AH47">
+      <c r="AJ47">
         <v>15.3</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2025</v>
       </c>
@@ -56447,76 +56636,82 @@
       <c r="F48">
         <v>2.542951049</v>
       </c>
-      <c r="G48" s="38">
-        <f t="shared" si="4"/>
-        <v>10581.555545882</v>
-      </c>
-      <c r="H48" s="38">
+      <c r="G48">
+        <v>773.91700000000003</v>
+      </c>
+      <c r="H48">
+        <v>377.16320000000002</v>
+      </c>
+      <c r="I48" s="38">
+        <f t="shared" si="0"/>
+        <v>11732.635745882</v>
+      </c>
+      <c r="J48" s="38">
         <f t="shared" si="1"/>
-        <v>11428.079989552562</v>
-      </c>
-      <c r="I48" s="38">
+        <v>11732.635745882</v>
+      </c>
+      <c r="K48" s="38">
         <f t="shared" si="2"/>
         <v>223.03538889999999</v>
       </c>
-      <c r="J48" s="39"/>
-      <c r="K48" s="38">
+      <c r="L48" s="39"/>
+      <c r="M48" s="38">
         <f t="shared" si="3"/>
-        <v>51.238864136831886</v>
-      </c>
-      <c r="L48" s="38">
+        <v>52.604368319067241</v>
+      </c>
+      <c r="N48" s="38">
         <v>64.062717710000001</v>
       </c>
-      <c r="M48" s="38">
+      <c r="O48" s="38">
         <v>65</v>
       </c>
-      <c r="N48" s="38">
+      <c r="P48" s="38">
         <v>102.3</v>
       </c>
-      <c r="O48" s="38">
+      <c r="Q48" s="38">
         <v>102</v>
       </c>
-      <c r="P48" s="38">
+      <c r="R48" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q48" s="38">
+      <c r="S48" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R48" s="38">
+      <c r="T48" s="38">
         <v>102.7</v>
       </c>
-      <c r="S48" s="38">
+      <c r="U48" s="38">
         <v>76</v>
       </c>
-      <c r="T48" s="39"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
+      <c r="V48" s="39"/>
       <c r="W48" s="38"/>
       <c r="X48" s="38"/>
       <c r="Y48" s="38"/>
-      <c r="AC48">
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="38"/>
+      <c r="AE48">
         <v>22.303538889999999</v>
       </c>
-      <c r="AD48">
+      <c r="AF48">
         <v>40</v>
       </c>
-      <c r="AE48">
+      <c r="AG48">
         <v>44</v>
       </c>
-      <c r="AF48">
+      <c r="AH48">
         <v>35</v>
       </c>
-      <c r="AG48">
+      <c r="AI48">
         <v>0.5</v>
       </c>
-      <c r="AH48">
+      <c r="AJ48">
         <v>15.3</v>
       </c>
-      <c r="AI48">
+      <c r="AK48">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2026</v>
       </c>
@@ -56535,71 +56730,77 @@
       <c r="F49">
         <v>2.4012622069999998</v>
       </c>
-      <c r="G49" s="38">
-        <f t="shared" si="4"/>
-        <v>10736.455885074001</v>
-      </c>
-      <c r="H49" s="38">
+      <c r="G49">
+        <v>752.61400000000003</v>
+      </c>
+      <c r="H49">
+        <v>362.01006669999998</v>
+      </c>
+      <c r="I49" s="38">
+        <f t="shared" si="0"/>
+        <v>11851.079951774002</v>
+      </c>
+      <c r="J49" s="38">
         <f t="shared" si="1"/>
-        <v>11595.372355879923</v>
-      </c>
-      <c r="I49" s="38">
+        <v>11851.079951774002</v>
+      </c>
+      <c r="K49" s="38">
         <f t="shared" si="2"/>
         <v>225.34045020000002</v>
       </c>
-      <c r="J49" s="39"/>
-      <c r="K49" s="38">
+      <c r="L49" s="39"/>
+      <c r="M49" s="38">
         <f t="shared" si="3"/>
-        <v>51.457127850718749</v>
-      </c>
-      <c r="L49" s="38">
+        <v>52.591889033928986</v>
+      </c>
+      <c r="N49" s="38">
         <v>62.70228419</v>
       </c>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38">
+      <c r="O49" s="38"/>
+      <c r="P49" s="38">
         <v>102.3</v>
       </c>
-      <c r="O49" s="38">
+      <c r="Q49" s="38">
         <v>102</v>
       </c>
-      <c r="P49" s="38">
+      <c r="R49" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q49" s="38">
+      <c r="S49" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R49" s="38">
+      <c r="T49" s="38">
         <v>102.7</v>
       </c>
-      <c r="S49" s="38">
+      <c r="U49" s="38">
         <v>76</v>
       </c>
-      <c r="T49" s="39"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
+      <c r="V49" s="39"/>
       <c r="W49" s="38"/>
       <c r="X49" s="38"/>
       <c r="Y49" s="38"/>
-      <c r="AC49">
+      <c r="Z49" s="38"/>
+      <c r="AA49" s="38"/>
+      <c r="AE49">
         <v>22.534045020000001</v>
       </c>
-      <c r="AD49">
+      <c r="AF49">
         <v>40</v>
       </c>
-      <c r="AE49">
+      <c r="AG49">
         <v>44</v>
       </c>
-      <c r="AF49">
+      <c r="AH49">
         <v>35</v>
       </c>
-      <c r="AG49">
+      <c r="AI49">
         <v>0.5</v>
       </c>
-      <c r="AH49">
+      <c r="AJ49">
         <v>15.3</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2027</v>
       </c>
@@ -56618,71 +56819,77 @@
       <c r="F50">
         <v>2.2668844890000002</v>
       </c>
-      <c r="G50" s="38">
-        <f t="shared" si="4"/>
-        <v>10888.913535488999</v>
-      </c>
-      <c r="H50" s="38">
+      <c r="G50">
+        <v>731.46833330000004</v>
+      </c>
+      <c r="H50">
+        <v>346.84533329999999</v>
+      </c>
+      <c r="I50" s="38">
+        <f t="shared" si="0"/>
+        <v>11967.227202088998</v>
+      </c>
+      <c r="J50" s="38">
         <f t="shared" si="1"/>
-        <v>11760.02661832812</v>
-      </c>
-      <c r="I50" s="38">
+        <v>11967.227202088998</v>
+      </c>
+      <c r="K50" s="38">
         <f t="shared" si="2"/>
         <v>227.39342440000001</v>
       </c>
-      <c r="J50" s="39"/>
-      <c r="K50" s="38">
+      <c r="L50" s="39"/>
+      <c r="M50" s="38">
         <f t="shared" si="3"/>
-        <v>51.71665209474773</v>
-      </c>
-      <c r="L50" s="38">
+        <v>52.627850755428426</v>
+      </c>
+      <c r="N50" s="38">
         <v>61.370740789999999</v>
       </c>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38">
+      <c r="O50" s="38"/>
+      <c r="P50" s="38">
         <v>102.3</v>
       </c>
-      <c r="O50" s="38">
+      <c r="Q50" s="38">
         <v>102</v>
       </c>
-      <c r="P50" s="38">
+      <c r="R50" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q50" s="38">
+      <c r="S50" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R50" s="38">
+      <c r="T50" s="38">
         <v>102.7</v>
       </c>
-      <c r="S50" s="38">
+      <c r="U50" s="38">
         <v>76</v>
       </c>
-      <c r="T50" s="39"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
+      <c r="V50" s="39"/>
       <c r="W50" s="38"/>
       <c r="X50" s="38"/>
       <c r="Y50" s="38"/>
-      <c r="AC50">
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AE50">
         <v>22.739342440000001</v>
       </c>
-      <c r="AD50">
+      <c r="AF50">
         <v>40</v>
       </c>
-      <c r="AE50">
+      <c r="AG50">
         <v>44</v>
       </c>
-      <c r="AF50">
+      <c r="AH50">
         <v>35</v>
       </c>
-      <c r="AG50">
+      <c r="AI50">
         <v>0.5</v>
       </c>
-      <c r="AH50">
+      <c r="AJ50">
         <v>15.3</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2028</v>
       </c>
@@ -56701,71 +56908,77 @@
       <c r="F51">
         <v>2.1296348279999999</v>
       </c>
-      <c r="G51" s="38">
-        <f t="shared" si="4"/>
-        <v>11042.125561795001</v>
-      </c>
-      <c r="H51" s="38">
+      <c r="G51">
+        <v>710.48</v>
+      </c>
+      <c r="H51">
+        <v>331.66899999999998</v>
+      </c>
+      <c r="I51" s="38">
+        <f t="shared" si="0"/>
+        <v>12084.274561795</v>
+      </c>
+      <c r="J51" s="38">
         <f t="shared" si="1"/>
-        <v>11925.495606738601</v>
-      </c>
-      <c r="I51" s="38">
+        <v>12084.274561795</v>
+      </c>
+      <c r="K51" s="38">
         <f t="shared" si="2"/>
         <v>229.24571610000004</v>
       </c>
-      <c r="J51" s="39"/>
-      <c r="K51" s="38">
+      <c r="L51" s="39"/>
+      <c r="M51" s="38">
         <f t="shared" si="3"/>
-        <v>52.020582149227778</v>
-      </c>
-      <c r="L51" s="38">
+        <v>52.713196858708926</v>
+      </c>
+      <c r="N51" s="38">
         <v>60.067473990000003</v>
       </c>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38">
+      <c r="O51" s="38"/>
+      <c r="P51" s="38">
         <v>102.3</v>
       </c>
-      <c r="O51" s="38">
+      <c r="Q51" s="38">
         <v>102</v>
       </c>
-      <c r="P51" s="38">
+      <c r="R51" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q51" s="38">
+      <c r="S51" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R51" s="38">
+      <c r="T51" s="38">
         <v>102.7</v>
       </c>
-      <c r="S51" s="38">
+      <c r="U51" s="38">
         <v>76</v>
       </c>
-      <c r="T51" s="39"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="38"/>
+      <c r="V51" s="39"/>
       <c r="W51" s="38"/>
       <c r="X51" s="38"/>
       <c r="Y51" s="38"/>
-      <c r="AC51">
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="38"/>
+      <c r="AE51">
         <v>22.924571610000001</v>
       </c>
-      <c r="AD51">
+      <c r="AF51">
         <v>40</v>
       </c>
-      <c r="AE51">
+      <c r="AG51">
         <v>44</v>
       </c>
-      <c r="AF51">
+      <c r="AH51">
         <v>35</v>
       </c>
-      <c r="AG51">
+      <c r="AI51">
         <v>0.5</v>
       </c>
-      <c r="AH51">
+      <c r="AJ51">
         <v>15.3</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2029</v>
       </c>
@@ -56784,71 +56997,77 @@
       <c r="F52">
         <v>1.9927764130000001</v>
       </c>
-      <c r="G52" s="38">
-        <f t="shared" si="4"/>
-        <v>11224.862979446001</v>
-      </c>
-      <c r="H52" s="38">
+      <c r="G52">
+        <v>710.35866669999996</v>
+      </c>
+      <c r="H52">
+        <v>314.73022220000001</v>
+      </c>
+      <c r="I52" s="38">
+        <f t="shared" si="0"/>
+        <v>12249.951868346001</v>
+      </c>
+      <c r="J52" s="38">
         <f t="shared" si="1"/>
-        <v>12122.852017801682</v>
-      </c>
-      <c r="I52" s="38">
+        <v>12249.951868346001</v>
+      </c>
+      <c r="K52" s="38">
         <f t="shared" si="2"/>
         <v>230.93431240000001</v>
       </c>
-      <c r="J52" s="39"/>
-      <c r="K52" s="38">
+      <c r="L52" s="39"/>
+      <c r="M52" s="38">
         <f t="shared" si="3"/>
-        <v>52.494806388076967</v>
-      </c>
-      <c r="L52" s="38">
+        <v>53.045178696216993</v>
+      </c>
+      <c r="N52" s="38">
         <v>58.791883319999997</v>
       </c>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38">
+      <c r="O52" s="38"/>
+      <c r="P52" s="38">
         <v>102.3</v>
       </c>
-      <c r="O52" s="38">
+      <c r="Q52" s="38">
         <v>102</v>
       </c>
-      <c r="P52" s="38">
+      <c r="R52" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q52" s="38">
+      <c r="S52" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R52" s="38">
+      <c r="T52" s="38">
         <v>102.7</v>
       </c>
-      <c r="S52" s="38">
+      <c r="U52" s="38">
         <v>76</v>
       </c>
-      <c r="T52" s="39"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="38"/>
+      <c r="V52" s="39"/>
       <c r="W52" s="38"/>
       <c r="X52" s="38"/>
       <c r="Y52" s="38"/>
-      <c r="AC52">
+      <c r="Z52" s="38"/>
+      <c r="AA52" s="38"/>
+      <c r="AE52">
         <v>23.093431240000001</v>
       </c>
-      <c r="AD52">
+      <c r="AF52">
         <v>40</v>
       </c>
-      <c r="AE52">
+      <c r="AG52">
         <v>44</v>
       </c>
-      <c r="AF52">
+      <c r="AH52">
         <v>35</v>
       </c>
-      <c r="AG52">
+      <c r="AI52">
         <v>0.5</v>
       </c>
-      <c r="AH52">
+      <c r="AJ52">
         <v>15.3</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2030</v>
       </c>
@@ -56867,76 +57086,82 @@
       <c r="F53">
         <v>1.856311209</v>
       </c>
-      <c r="G53" s="38">
-        <f t="shared" si="4"/>
-        <v>11405.267458208999</v>
-      </c>
-      <c r="H53" s="38">
+      <c r="G53">
+        <v>710.23733330000005</v>
+      </c>
+      <c r="H53">
+        <v>297.78388890000002</v>
+      </c>
+      <c r="I53" s="38">
+        <f t="shared" si="0"/>
+        <v>12413.288680408998</v>
+      </c>
+      <c r="J53" s="38">
         <f t="shared" si="1"/>
-        <v>12317.688854865719</v>
-      </c>
-      <c r="I53" s="38">
+        <v>12413.288680408998</v>
+      </c>
+      <c r="K53" s="38">
         <f t="shared" si="2"/>
         <v>232.48673840000001</v>
       </c>
-      <c r="J53" s="39"/>
-      <c r="K53" s="38">
+      <c r="L53" s="39"/>
+      <c r="M53" s="38">
         <f t="shared" si="3"/>
-        <v>52.982328969116452</v>
-      </c>
-      <c r="L53" s="38">
+        <v>53.393534469271891</v>
+      </c>
+      <c r="N53" s="38">
         <v>57.54338104</v>
       </c>
-      <c r="M53" s="38">
+      <c r="O53" s="38">
         <v>60</v>
       </c>
-      <c r="N53" s="38">
+      <c r="P53" s="38">
         <v>102.3</v>
       </c>
-      <c r="O53" s="38">
+      <c r="Q53" s="38">
         <v>102</v>
       </c>
-      <c r="P53" s="38">
+      <c r="R53" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q53" s="38">
+      <c r="S53" s="38">
         <v>74.400000000000006</v>
       </c>
-      <c r="R53" s="38">
+      <c r="T53" s="38">
         <v>102.7</v>
       </c>
-      <c r="S53" s="38">
+      <c r="U53" s="38">
         <v>76</v>
       </c>
-      <c r="T53" s="39"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
+      <c r="V53" s="39"/>
       <c r="W53" s="38"/>
       <c r="X53" s="38"/>
       <c r="Y53" s="38"/>
-      <c r="AC53">
+      <c r="Z53" s="38"/>
+      <c r="AA53" s="38"/>
+      <c r="AE53">
         <v>23.248673839999999</v>
       </c>
-      <c r="AD53">
+      <c r="AF53">
         <v>40</v>
       </c>
-      <c r="AE53">
+      <c r="AG53">
         <v>44</v>
       </c>
-      <c r="AF53">
+      <c r="AH53">
         <v>35</v>
       </c>
-      <c r="AG53">
+      <c r="AI53">
         <v>0.5</v>
       </c>
-      <c r="AH53">
+      <c r="AJ53">
         <v>15.3</v>
       </c>
-      <c r="AI53">
+      <c r="AK53">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2031</v>
       </c>
@@ -56955,67 +57180,73 @@
       <c r="F54">
         <v>1.856311209</v>
       </c>
-      <c r="G54" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H54" s="38">
+      <c r="G54">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H54">
+        <v>280.83</v>
+      </c>
+      <c r="I54" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J54" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I54" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K54" s="38">
         <f t="shared" si="2"/>
         <v>233.92404590000001</v>
       </c>
-      <c r="J54" s="39"/>
-      <c r="K54" s="38">
+      <c r="L54" s="39"/>
+      <c r="M54" s="38">
         <f t="shared" si="3"/>
-        <v>53.494924141382249</v>
-      </c>
-      <c r="L54" s="38">
+        <v>53.768524158417854</v>
+      </c>
+      <c r="N54" s="38">
         <v>56.321391920000003</v>
       </c>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38">
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38">
         <v>102</v>
       </c>
-      <c r="P54" s="38">
+      <c r="R54" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38">
+      <c r="S54" s="38"/>
+      <c r="T54" s="38">
         <v>102.7</v>
       </c>
-      <c r="S54" s="38">
+      <c r="U54" s="38">
         <v>76</v>
       </c>
-      <c r="T54" s="39"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
+      <c r="V54" s="39"/>
       <c r="W54" s="38"/>
       <c r="X54" s="38"/>
       <c r="Y54" s="38"/>
-      <c r="AC54">
+      <c r="Z54" s="38"/>
+      <c r="AA54" s="38"/>
+      <c r="AE54">
         <v>23.392404590000002</v>
       </c>
-      <c r="AD54">
+      <c r="AF54">
         <v>40</v>
       </c>
-      <c r="AE54">
+      <c r="AG54">
         <v>44</v>
       </c>
-      <c r="AF54">
+      <c r="AH54">
         <v>35</v>
       </c>
-      <c r="AG54">
+      <c r="AI54">
         <v>0.5</v>
       </c>
-      <c r="AH54">
+      <c r="AJ54">
         <v>15.3</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2032</v>
       </c>
@@ -57034,67 +57265,73 @@
       <c r="F55">
         <v>1.856311209</v>
       </c>
-      <c r="G55" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H55" s="38">
+      <c r="G55">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H55">
+        <v>280.83</v>
+      </c>
+      <c r="I55" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J55" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I55" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K55" s="38">
         <f t="shared" si="2"/>
         <v>235.2627057</v>
       </c>
-      <c r="J55" s="39"/>
-      <c r="K55" s="38">
+      <c r="L55" s="39"/>
+      <c r="M55" s="38">
         <f t="shared" si="3"/>
-        <v>53.190534611222567</v>
-      </c>
-      <c r="L55" s="38">
+        <v>53.462577826711602</v>
+      </c>
+      <c r="N55" s="38">
         <v>55.125352909999997</v>
       </c>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38">
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38">
         <v>102</v>
       </c>
-      <c r="P55" s="38">
+      <c r="R55" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="38">
+      <c r="S55" s="38"/>
+      <c r="T55" s="38">
         <v>102.7</v>
       </c>
-      <c r="S55" s="38">
+      <c r="U55" s="38">
         <v>76</v>
       </c>
-      <c r="T55" s="39"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
+      <c r="V55" s="39"/>
       <c r="W55" s="38"/>
       <c r="X55" s="38"/>
       <c r="Y55" s="38"/>
-      <c r="AC55">
+      <c r="Z55" s="38"/>
+      <c r="AA55" s="38"/>
+      <c r="AE55">
         <v>23.526270570000001</v>
       </c>
-      <c r="AD55">
+      <c r="AF55">
         <v>40</v>
       </c>
-      <c r="AE55">
+      <c r="AG55">
         <v>44</v>
       </c>
-      <c r="AF55">
+      <c r="AH55">
         <v>35</v>
       </c>
-      <c r="AG55">
+      <c r="AI55">
         <v>0.5</v>
       </c>
-      <c r="AH55">
+      <c r="AJ55">
         <v>15.3</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2033</v>
       </c>
@@ -57113,67 +57350,73 @@
       <c r="F56">
         <v>1.856311209</v>
       </c>
-      <c r="G56" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H56" s="38">
+      <c r="G56">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H56">
+        <v>280.83</v>
+      </c>
+      <c r="I56" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J56" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I56" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K56" s="38">
         <f t="shared" si="2"/>
         <v>236.51585300000002</v>
       </c>
-      <c r="J56" s="39"/>
-      <c r="K56" s="38">
+      <c r="L56" s="39"/>
+      <c r="M56" s="38">
         <f t="shared" si="3"/>
-        <v>52.908711748238368</v>
-      </c>
-      <c r="L56" s="38">
+        <v>53.179313579496068</v>
+      </c>
+      <c r="N56" s="38">
         <v>53.95471294</v>
       </c>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38">
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38">
         <v>102</v>
       </c>
-      <c r="P56" s="38">
+      <c r="R56" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38">
+      <c r="S56" s="38"/>
+      <c r="T56" s="38">
         <v>102.7</v>
       </c>
-      <c r="S56" s="38">
+      <c r="U56" s="38">
         <v>76</v>
       </c>
-      <c r="T56" s="39"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
+      <c r="V56" s="39"/>
       <c r="W56" s="38"/>
       <c r="X56" s="38"/>
       <c r="Y56" s="38"/>
-      <c r="AC56">
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="38"/>
+      <c r="AE56">
         <v>23.651585300000001</v>
       </c>
-      <c r="AD56">
+      <c r="AF56">
         <v>40</v>
       </c>
-      <c r="AE56">
+      <c r="AG56">
         <v>44</v>
       </c>
-      <c r="AF56">
+      <c r="AH56">
         <v>35</v>
       </c>
-      <c r="AG56">
+      <c r="AI56">
         <v>0.5</v>
       </c>
-      <c r="AH56">
+      <c r="AJ56">
         <v>15.3</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2034</v>
       </c>
@@ -57192,67 +57435,73 @@
       <c r="F57">
         <v>1.856311209</v>
       </c>
-      <c r="G57" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H57" s="38">
+      <c r="G57">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H57">
+        <v>280.83</v>
+      </c>
+      <c r="I57" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J57" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I57" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K57" s="38">
         <f t="shared" si="2"/>
         <v>237.69413579999997</v>
       </c>
-      <c r="J57" s="39"/>
-      <c r="K57" s="38">
+      <c r="L57" s="39"/>
+      <c r="M57" s="38">
         <f t="shared" si="3"/>
-        <v>52.646435925516514</v>
-      </c>
-      <c r="L57" s="38">
+        <v>52.915696345963447</v>
+      </c>
+      <c r="N57" s="38">
         <v>52.808932630000001</v>
       </c>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38">
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38">
         <v>102</v>
       </c>
-      <c r="P57" s="38">
+      <c r="R57" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38">
+      <c r="S57" s="38"/>
+      <c r="T57" s="38">
         <v>102.7</v>
       </c>
-      <c r="S57" s="38">
+      <c r="U57" s="38">
         <v>76</v>
       </c>
-      <c r="T57" s="39"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
+      <c r="V57" s="39"/>
       <c r="W57" s="38"/>
       <c r="X57" s="38"/>
       <c r="Y57" s="38"/>
-      <c r="AC57">
+      <c r="Z57" s="38"/>
+      <c r="AA57" s="38"/>
+      <c r="AE57">
         <v>23.769413579999998</v>
       </c>
-      <c r="AD57">
+      <c r="AF57">
         <v>40</v>
       </c>
-      <c r="AE57">
+      <c r="AG57">
         <v>44</v>
       </c>
-      <c r="AF57">
+      <c r="AH57">
         <v>35</v>
       </c>
-      <c r="AG57">
+      <c r="AI57">
         <v>0.5</v>
       </c>
-      <c r="AH57">
+      <c r="AJ57">
         <v>15.3</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2035</v>
       </c>
@@ -57271,70 +57520,76 @@
       <c r="F58">
         <v>1.856311209</v>
       </c>
-      <c r="G58" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H58" s="38">
+      <c r="G58">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H58">
+        <v>280.83</v>
+      </c>
+      <c r="I58" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J58" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I58" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K58" s="38">
         <f t="shared" si="2"/>
         <v>238.80630870000002</v>
       </c>
-      <c r="J58" s="39"/>
-      <c r="K58" s="38">
+      <c r="L58" s="39"/>
+      <c r="M58" s="38">
         <f t="shared" si="3"/>
-        <v>52.401250027218055</v>
-      </c>
-      <c r="L58" s="38">
+        <v>52.669256443345361</v>
+      </c>
+      <c r="N58" s="38">
         <v>51.687484079999997</v>
       </c>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38">
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38">
         <v>102</v>
       </c>
-      <c r="P58" s="38">
+      <c r="R58" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38">
+      <c r="S58" s="38"/>
+      <c r="T58" s="38">
         <v>102.7</v>
       </c>
-      <c r="S58" s="38">
+      <c r="U58" s="38">
         <v>76</v>
       </c>
-      <c r="T58" s="39"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="38"/>
+      <c r="V58" s="39"/>
       <c r="W58" s="38"/>
       <c r="X58" s="38"/>
       <c r="Y58" s="38"/>
-      <c r="AC58">
+      <c r="Z58" s="38"/>
+      <c r="AA58" s="38"/>
+      <c r="AE58">
         <v>23.880630870000001</v>
       </c>
-      <c r="AD58">
+      <c r="AF58">
         <v>40</v>
       </c>
-      <c r="AE58">
+      <c r="AG58">
         <v>44</v>
       </c>
-      <c r="AF58">
+      <c r="AH58">
         <v>35</v>
       </c>
-      <c r="AG58">
+      <c r="AI58">
         <v>0.5</v>
       </c>
-      <c r="AH58">
+      <c r="AJ58">
         <v>15.3</v>
       </c>
-      <c r="AI58">
+      <c r="AK58">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2036</v>
       </c>
@@ -57353,67 +57608,73 @@
       <c r="F59">
         <v>1.856311209</v>
       </c>
-      <c r="G59" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H59" s="38">
+      <c r="G59">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H59">
+        <v>280.83</v>
+      </c>
+      <c r="I59" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J59" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I59" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K59" s="38">
         <f t="shared" si="2"/>
         <v>239.85965880000001</v>
       </c>
-      <c r="J59" s="39"/>
-      <c r="K59" s="38">
+      <c r="L59" s="39"/>
+      <c r="M59" s="38">
         <f t="shared" si="3"/>
-        <v>52.171128537708562</v>
-      </c>
-      <c r="L59" s="38">
+        <v>52.437957996499065</v>
+      </c>
+      <c r="N59" s="38">
         <v>50.589850570000003</v>
       </c>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38">
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38">
         <v>102</v>
       </c>
-      <c r="P59" s="38">
+      <c r="R59" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38">
+      <c r="S59" s="38"/>
+      <c r="T59" s="38">
         <v>102.7</v>
       </c>
-      <c r="S59" s="38">
+      <c r="U59" s="38">
         <v>76</v>
       </c>
-      <c r="T59" s="39"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
+      <c r="V59" s="39"/>
       <c r="W59" s="38"/>
       <c r="X59" s="38"/>
       <c r="Y59" s="38"/>
-      <c r="AC59">
+      <c r="Z59" s="38"/>
+      <c r="AA59" s="38"/>
+      <c r="AE59">
         <v>23.985965879999998</v>
       </c>
-      <c r="AD59">
+      <c r="AF59">
         <v>40</v>
       </c>
-      <c r="AE59">
+      <c r="AG59">
         <v>44</v>
       </c>
-      <c r="AF59">
+      <c r="AH59">
         <v>35</v>
       </c>
-      <c r="AG59">
+      <c r="AI59">
         <v>0.5</v>
       </c>
-      <c r="AH59">
+      <c r="AJ59">
         <v>15.3</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2037</v>
       </c>
@@ -57432,67 +57693,73 @@
       <c r="F60">
         <v>1.856311209</v>
       </c>
-      <c r="G60" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H60" s="38">
+      <c r="G60">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H60">
+        <v>280.83</v>
+      </c>
+      <c r="I60" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J60" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I60" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K60" s="38">
         <f t="shared" si="2"/>
         <v>240.86031829999999</v>
       </c>
-      <c r="J60" s="39"/>
-      <c r="K60" s="38">
+      <c r="L60" s="39"/>
+      <c r="M60" s="38">
         <f t="shared" si="3"/>
-        <v>51.954382434550325</v>
-      </c>
-      <c r="L60" s="38">
+        <v>52.220103344474396</v>
+      </c>
+      <c r="N60" s="38">
         <v>49.515526360000003</v>
       </c>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38">
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38">
         <v>102</v>
       </c>
-      <c r="P60" s="38">
+      <c r="R60" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="38">
+      <c r="S60" s="38"/>
+      <c r="T60" s="38">
         <v>102.7</v>
       </c>
-      <c r="S60" s="38">
+      <c r="U60" s="38">
         <v>76</v>
       </c>
-      <c r="T60" s="39"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="38"/>
+      <c r="V60" s="39"/>
       <c r="W60" s="38"/>
       <c r="X60" s="38"/>
       <c r="Y60" s="38"/>
-      <c r="AC60">
+      <c r="Z60" s="38"/>
+      <c r="AA60" s="38"/>
+      <c r="AE60">
         <v>24.08603183</v>
       </c>
-      <c r="AD60">
+      <c r="AF60">
         <v>40</v>
       </c>
-      <c r="AE60">
+      <c r="AG60">
         <v>44</v>
       </c>
-      <c r="AF60">
+      <c r="AH60">
         <v>35</v>
       </c>
-      <c r="AG60">
+      <c r="AI60">
         <v>0.5</v>
       </c>
-      <c r="AH60">
+      <c r="AJ60">
         <v>15.3</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2038</v>
       </c>
@@ -57511,67 +57778,73 @@
       <c r="F61">
         <v>1.856311209</v>
       </c>
-      <c r="G61" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H61" s="38">
+      <c r="G61">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H61">
+        <v>280.83</v>
+      </c>
+      <c r="I61" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J61" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I61" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K61" s="38">
         <f t="shared" si="2"/>
         <v>241.81349740000002</v>
       </c>
-      <c r="J61" s="39"/>
-      <c r="K61" s="38">
+      <c r="L61" s="39"/>
+      <c r="M61" s="38">
         <f t="shared" si="3"/>
-        <v>51.749588938643413</v>
-      </c>
-      <c r="L61" s="38">
+        <v>52.014262431361686</v>
+      </c>
+      <c r="N61" s="38">
         <v>48.464016460000003</v>
       </c>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38">
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38">
         <v>102</v>
       </c>
-      <c r="P61" s="38">
+      <c r="R61" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38">
+      <c r="S61" s="38"/>
+      <c r="T61" s="38">
         <v>102.7</v>
       </c>
-      <c r="S61" s="38">
+      <c r="U61" s="38">
         <v>76</v>
       </c>
-      <c r="T61" s="39"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
+      <c r="V61" s="39"/>
       <c r="W61" s="38"/>
       <c r="X61" s="38"/>
       <c r="Y61" s="38"/>
-      <c r="AC61">
+      <c r="Z61" s="38"/>
+      <c r="AA61" s="38"/>
+      <c r="AE61">
         <v>24.181349740000002</v>
       </c>
-      <c r="AD61">
+      <c r="AF61">
         <v>40</v>
       </c>
-      <c r="AE61">
+      <c r="AG61">
         <v>44</v>
       </c>
-      <c r="AF61">
+      <c r="AH61">
         <v>35</v>
       </c>
-      <c r="AG61">
+      <c r="AI61">
         <v>0.5</v>
       </c>
-      <c r="AH61">
+      <c r="AJ61">
         <v>15.3</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2039</v>
       </c>
@@ -57590,67 +57863,73 @@
       <c r="F62">
         <v>1.856311209</v>
       </c>
-      <c r="G62" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H62" s="38">
+      <c r="G62">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H62">
+        <v>280.83</v>
+      </c>
+      <c r="I62" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J62" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I62" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K62" s="38">
         <f t="shared" si="2"/>
         <v>242.72366120000004</v>
       </c>
-      <c r="J62" s="39"/>
-      <c r="K62" s="38">
+      <c r="L62" s="39"/>
+      <c r="M62" s="38">
         <f t="shared" si="3"/>
-        <v>51.555538625278935</v>
-      </c>
-      <c r="L62" s="38">
+        <v>51.819219646844203</v>
+      </c>
+      <c r="N62" s="38">
         <v>47.43483638</v>
       </c>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38">
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38">
         <v>102</v>
       </c>
-      <c r="P62" s="38">
+      <c r="R62" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="38">
+      <c r="S62" s="38"/>
+      <c r="T62" s="38">
         <v>102.7</v>
       </c>
-      <c r="S62" s="38">
+      <c r="U62" s="38">
         <v>76</v>
       </c>
-      <c r="T62" s="39"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38"/>
+      <c r="V62" s="39"/>
       <c r="W62" s="38"/>
       <c r="X62" s="38"/>
       <c r="Y62" s="38"/>
-      <c r="AC62">
+      <c r="Z62" s="38"/>
+      <c r="AA62" s="38"/>
+      <c r="AE62">
         <v>24.272366120000001</v>
       </c>
-      <c r="AD62">
+      <c r="AF62">
         <v>40</v>
       </c>
-      <c r="AE62">
+      <c r="AG62">
         <v>44</v>
       </c>
-      <c r="AF62">
+      <c r="AH62">
         <v>35</v>
       </c>
-      <c r="AG62">
+      <c r="AI62">
         <v>0.5</v>
       </c>
-      <c r="AH62">
+      <c r="AJ62">
         <v>15.3</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2040</v>
       </c>
@@ -57669,70 +57948,76 @@
       <c r="F63">
         <v>1.856311209</v>
       </c>
-      <c r="G63" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H63" s="38">
+      <c r="G63">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H63">
+        <v>280.83</v>
+      </c>
+      <c r="I63" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J63" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I63" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K63" s="38">
         <f t="shared" si="2"/>
         <v>243.59466650000002</v>
       </c>
-      <c r="J63" s="39"/>
-      <c r="K63" s="38">
+      <c r="L63" s="39"/>
+      <c r="M63" s="38">
         <f t="shared" si="3"/>
-        <v>51.371194903668872</v>
-      </c>
-      <c r="L63" s="38">
+        <v>51.633933098485947</v>
+      </c>
+      <c r="N63" s="38">
         <v>46.427511940000002</v>
       </c>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38">
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38">
         <v>102</v>
       </c>
-      <c r="P63" s="38">
+      <c r="R63" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38">
+      <c r="S63" s="38"/>
+      <c r="T63" s="38">
         <v>102.7</v>
       </c>
-      <c r="S63" s="38">
+      <c r="U63" s="38">
         <v>76</v>
       </c>
-      <c r="T63" s="39"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
+      <c r="V63" s="39"/>
       <c r="W63" s="38"/>
       <c r="X63" s="38"/>
       <c r="Y63" s="38"/>
-      <c r="AC63">
+      <c r="Z63" s="38"/>
+      <c r="AA63" s="38"/>
+      <c r="AE63">
         <v>24.359466650000002</v>
       </c>
-      <c r="AD63">
+      <c r="AF63">
         <v>40</v>
       </c>
-      <c r="AE63">
+      <c r="AG63">
         <v>44</v>
       </c>
-      <c r="AF63">
+      <c r="AH63">
         <v>35</v>
       </c>
-      <c r="AG63">
+      <c r="AI63">
         <v>0.5</v>
       </c>
-      <c r="AH63">
+      <c r="AJ63">
         <v>15.3</v>
       </c>
-      <c r="AI63">
+      <c r="AK63">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2041</v>
       </c>
@@ -57751,67 +58036,73 @@
       <c r="F64">
         <v>1.856311209</v>
       </c>
-      <c r="G64" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H64" s="38">
+      <c r="G64">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H64">
+        <v>280.83</v>
+      </c>
+      <c r="I64" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J64" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I64" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K64" s="38">
         <f t="shared" si="2"/>
         <v>244.42986730000001</v>
       </c>
-      <c r="J64" s="39"/>
-      <c r="K64" s="38">
+      <c r="L64" s="39"/>
+      <c r="M64" s="38">
         <f t="shared" si="3"/>
-        <v>51.195662905249705</v>
-      </c>
-      <c r="L64" s="38">
+        <v>51.457503340914336</v>
+      </c>
+      <c r="N64" s="38">
         <v>45.441578999999997</v>
       </c>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38">
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38">
         <v>102</v>
       </c>
-      <c r="P64" s="38">
+      <c r="R64" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38">
+      <c r="S64" s="38"/>
+      <c r="T64" s="38">
         <v>102.7</v>
       </c>
-      <c r="S64" s="38">
+      <c r="U64" s="38">
         <v>76</v>
       </c>
-      <c r="T64" s="39"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="38"/>
+      <c r="V64" s="39"/>
       <c r="W64" s="38"/>
       <c r="X64" s="38"/>
       <c r="Y64" s="38"/>
-      <c r="AC64">
+      <c r="Z64" s="38"/>
+      <c r="AA64" s="38"/>
+      <c r="AE64">
         <v>24.442986730000001</v>
       </c>
-      <c r="AD64">
+      <c r="AF64">
         <v>40</v>
       </c>
-      <c r="AE64">
+      <c r="AG64">
         <v>44</v>
       </c>
-      <c r="AF64">
+      <c r="AH64">
         <v>35</v>
       </c>
-      <c r="AG64">
+      <c r="AI64">
         <v>0.5</v>
       </c>
-      <c r="AH64">
+      <c r="AJ64">
         <v>15.3</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2042</v>
       </c>
@@ -57830,67 +58121,73 @@
       <c r="F65">
         <v>1.856311209</v>
       </c>
-      <c r="G65" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H65" s="38">
+      <c r="G65">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H65">
+        <v>280.83</v>
+      </c>
+      <c r="I65" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J65" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I65" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K65" s="38">
         <f t="shared" si="2"/>
         <v>245.23219999999998</v>
       </c>
-      <c r="J65" s="39"/>
-      <c r="K65" s="38">
+      <c r="L65" s="39"/>
+      <c r="M65" s="38">
         <f t="shared" si="3"/>
-        <v>51.028164695605717</v>
-      </c>
-      <c r="L65" s="38">
+        <v>51.289148460964746</v>
+      </c>
+      <c r="N65" s="38">
         <v>44.476583300000001</v>
       </c>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38">
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38">
         <v>102</v>
       </c>
-      <c r="P65" s="38">
+      <c r="R65" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38">
+      <c r="S65" s="38"/>
+      <c r="T65" s="38">
         <v>102.7</v>
       </c>
-      <c r="S65" s="38">
+      <c r="U65" s="38">
         <v>76</v>
       </c>
-      <c r="T65" s="39"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
+      <c r="V65" s="39"/>
       <c r="W65" s="38"/>
       <c r="X65" s="38"/>
       <c r="Y65" s="38"/>
-      <c r="AC65">
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="38"/>
+      <c r="AE65">
         <v>24.523219999999998</v>
       </c>
-      <c r="AD65">
+      <c r="AF65">
         <v>40</v>
       </c>
-      <c r="AE65">
+      <c r="AG65">
         <v>44</v>
       </c>
-      <c r="AF65">
+      <c r="AH65">
         <v>35</v>
       </c>
-      <c r="AG65">
+      <c r="AI65">
         <v>0.5</v>
       </c>
-      <c r="AH65">
+      <c r="AJ65">
         <v>15.3</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2043</v>
       </c>
@@ -57909,67 +58206,73 @@
       <c r="F66">
         <v>1.856311209</v>
       </c>
-      <c r="G66" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H66" s="38">
+      <c r="G66">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H66">
+        <v>280.83</v>
+      </c>
+      <c r="I66" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J66" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I66" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K66" s="38">
         <f t="shared" si="2"/>
         <v>246.00424960000001</v>
       </c>
-      <c r="J66" s="39"/>
-      <c r="K66" s="38">
+      <c r="L66" s="39"/>
+      <c r="M66" s="38">
         <f t="shared" si="3"/>
-        <v>50.868020006210976</v>
-      </c>
-      <c r="L66" s="38">
+        <v>51.128184710874997</v>
+      </c>
+      <c r="N66" s="38">
         <v>43.532080209999997</v>
       </c>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38">
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38">
         <v>102</v>
       </c>
-      <c r="P66" s="38">
+      <c r="R66" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38">
+      <c r="S66" s="38"/>
+      <c r="T66" s="38">
         <v>102.7</v>
       </c>
-      <c r="S66" s="38">
+      <c r="U66" s="38">
         <v>76</v>
       </c>
-      <c r="T66" s="39"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="38"/>
+      <c r="V66" s="39"/>
       <c r="W66" s="38"/>
       <c r="X66" s="38"/>
       <c r="Y66" s="38"/>
-      <c r="AC66">
+      <c r="Z66" s="38"/>
+      <c r="AA66" s="38"/>
+      <c r="AE66">
         <v>24.600424960000002</v>
       </c>
-      <c r="AD66">
+      <c r="AF66">
         <v>40</v>
       </c>
-      <c r="AE66">
+      <c r="AG66">
         <v>44</v>
       </c>
-      <c r="AF66">
+      <c r="AH66">
         <v>35</v>
       </c>
-      <c r="AG66">
+      <c r="AI66">
         <v>0.5</v>
       </c>
-      <c r="AH66">
+      <c r="AJ66">
         <v>15.3</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2044</v>
       </c>
@@ -57988,67 +58291,73 @@
       <c r="F67">
         <v>1.856311209</v>
       </c>
-      <c r="G67" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H67" s="38">
+      <c r="G67">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H67">
+        <v>280.83</v>
+      </c>
+      <c r="I67" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J67" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I67" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K67" s="38">
         <f t="shared" si="2"/>
         <v>246.74830409999998</v>
       </c>
-      <c r="J67" s="39"/>
-      <c r="K67" s="38">
+      <c r="L67" s="39"/>
+      <c r="M67" s="38">
         <f t="shared" si="3"/>
-        <v>50.714630586454838</v>
-      </c>
-      <c r="L67" s="38">
+        <v>50.974010780279151</v>
+      </c>
+      <c r="N67" s="38">
         <v>42.60763455</v>
       </c>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38">
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38">
         <v>102</v>
       </c>
-      <c r="P67" s="38">
+      <c r="R67" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38">
+      <c r="S67" s="38"/>
+      <c r="T67" s="38">
         <v>102.7</v>
       </c>
-      <c r="S67" s="38">
+      <c r="U67" s="38">
         <v>76</v>
       </c>
-      <c r="T67" s="39"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="38"/>
+      <c r="V67" s="39"/>
       <c r="W67" s="38"/>
       <c r="X67" s="38"/>
       <c r="Y67" s="38"/>
-      <c r="AC67">
+      <c r="Z67" s="38"/>
+      <c r="AA67" s="38"/>
+      <c r="AE67">
         <v>24.674830409999998</v>
       </c>
-      <c r="AD67">
+      <c r="AF67">
         <v>40</v>
       </c>
-      <c r="AE67">
+      <c r="AG67">
         <v>44</v>
       </c>
-      <c r="AF67">
+      <c r="AH67">
         <v>35</v>
       </c>
-      <c r="AG67">
+      <c r="AI67">
         <v>0.5</v>
       </c>
-      <c r="AH67">
+      <c r="AJ67">
         <v>15.3</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2045</v>
       </c>
@@ -58067,70 +58376,76 @@
       <c r="F68">
         <v>1.856311209</v>
       </c>
-      <c r="G68" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H68" s="38">
+      <c r="G68">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H68">
+        <v>280.83</v>
+      </c>
+      <c r="I68" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J68" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I68" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K68" s="38">
         <f t="shared" si="2"/>
         <v>247.46639890000003</v>
       </c>
-      <c r="J68" s="39"/>
-      <c r="K68" s="38">
+      <c r="L68" s="39"/>
+      <c r="M68" s="38">
         <f t="shared" si="3"/>
-        <v>50.567467526459886</v>
-      </c>
-      <c r="L68" s="38">
+        <v>50.826095054187967</v>
+      </c>
+      <c r="N68" s="38">
         <v>41.702820389999999</v>
       </c>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38">
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38">
         <v>102</v>
       </c>
-      <c r="P68" s="38">
+      <c r="R68" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38">
+      <c r="S68" s="38"/>
+      <c r="T68" s="38">
         <v>102.7</v>
       </c>
-      <c r="S68" s="38">
+      <c r="U68" s="38">
         <v>76</v>
       </c>
-      <c r="T68" s="39"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="38"/>
+      <c r="V68" s="39"/>
       <c r="W68" s="38"/>
       <c r="X68" s="38"/>
       <c r="Y68" s="38"/>
-      <c r="AC68">
+      <c r="Z68" s="38"/>
+      <c r="AA68" s="38"/>
+      <c r="AE68">
         <v>24.746639890000001</v>
       </c>
-      <c r="AD68">
+      <c r="AF68">
         <v>40</v>
       </c>
-      <c r="AE68">
+      <c r="AG68">
         <v>44</v>
       </c>
-      <c r="AF68">
+      <c r="AH68">
         <v>35</v>
       </c>
-      <c r="AG68">
+      <c r="AI68">
         <v>0.5</v>
       </c>
-      <c r="AH68">
+      <c r="AJ68">
         <v>15.3</v>
       </c>
-      <c r="AI68">
+      <c r="AK68">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2046</v>
       </c>
@@ -58149,67 +58464,73 @@
       <c r="F69">
         <v>1.856311209</v>
       </c>
-      <c r="G69" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H69" s="38">
+      <c r="G69">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H69">
+        <v>280.83</v>
+      </c>
+      <c r="I69" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J69" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I69" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K69" s="38">
         <f t="shared" si="2"/>
         <v>248.16035240000002</v>
       </c>
-      <c r="J69" s="39"/>
-      <c r="K69" s="38">
+      <c r="L69" s="39"/>
+      <c r="M69" s="38">
         <f t="shared" si="3"/>
-        <v>50.426061090110373</v>
-      </c>
-      <c r="L69" s="38">
+        <v>50.683965394018344</v>
+      </c>
+      <c r="N69" s="38">
         <v>40.817220829999997</v>
       </c>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38">
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38">
         <v>102</v>
       </c>
-      <c r="P69" s="38">
+      <c r="R69" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38">
+      <c r="S69" s="38"/>
+      <c r="T69" s="38">
         <v>102.7</v>
       </c>
-      <c r="S69" s="38">
+      <c r="U69" s="38">
         <v>76</v>
       </c>
-      <c r="T69" s="39"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="38"/>
+      <c r="V69" s="39"/>
       <c r="W69" s="38"/>
       <c r="X69" s="38"/>
       <c r="Y69" s="38"/>
-      <c r="AC69">
+      <c r="Z69" s="38"/>
+      <c r="AA69" s="38"/>
+      <c r="AE69">
         <v>24.816035240000001</v>
       </c>
-      <c r="AD69">
+      <c r="AF69">
         <v>40</v>
       </c>
-      <c r="AE69">
+      <c r="AG69">
         <v>44</v>
       </c>
-      <c r="AF69">
+      <c r="AH69">
         <v>35</v>
       </c>
-      <c r="AG69">
+      <c r="AI69">
         <v>0.5</v>
       </c>
-      <c r="AH69">
+      <c r="AJ69">
         <v>15.3</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2047</v>
       </c>
@@ -58228,67 +58549,73 @@
       <c r="F70">
         <v>1.856311209</v>
       </c>
-      <c r="G70" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H70" s="38">
+      <c r="G70">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H70">
+        <v>280.83</v>
+      </c>
+      <c r="I70" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J70" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I70" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K70" s="38">
         <f t="shared" si="2"/>
         <v>248.83179619999999</v>
       </c>
-      <c r="J70" s="39"/>
-      <c r="K70" s="38">
+      <c r="L70" s="39"/>
+      <c r="M70" s="38">
         <f t="shared" si="3"/>
-        <v>50.289992201027722</v>
-      </c>
-      <c r="L70" s="38">
+        <v>50.547200580023777</v>
+      </c>
+      <c r="N70" s="38">
         <v>39.950427830000002</v>
       </c>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38">
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38">
         <v>102</v>
       </c>
-      <c r="P70" s="38">
+      <c r="R70" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="38">
+      <c r="S70" s="38"/>
+      <c r="T70" s="38">
         <v>102.7</v>
       </c>
-      <c r="S70" s="38">
+      <c r="U70" s="38">
         <v>76</v>
       </c>
-      <c r="T70" s="39"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
+      <c r="V70" s="39"/>
       <c r="W70" s="38"/>
       <c r="X70" s="38"/>
       <c r="Y70" s="38"/>
-      <c r="AC70">
+      <c r="Z70" s="38"/>
+      <c r="AA70" s="38"/>
+      <c r="AE70">
         <v>24.88317962</v>
       </c>
-      <c r="AD70">
+      <c r="AF70">
         <v>40</v>
       </c>
-      <c r="AE70">
+      <c r="AG70">
         <v>44</v>
       </c>
-      <c r="AF70">
+      <c r="AH70">
         <v>35</v>
       </c>
-      <c r="AG70">
+      <c r="AI70">
         <v>0.5</v>
       </c>
-      <c r="AH70">
+      <c r="AJ70">
         <v>15.3</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2048</v>
       </c>
@@ -58307,67 +58634,73 @@
       <c r="F71">
         <v>1.856311209</v>
       </c>
-      <c r="G71" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H71" s="38">
+      <c r="G71">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H71">
+        <v>280.83</v>
+      </c>
+      <c r="I71" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J71" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I71" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K71" s="38">
         <f t="shared" si="2"/>
         <v>249.4822001</v>
       </c>
-      <c r="J71" s="39"/>
-      <c r="K71" s="38">
+      <c r="L71" s="39"/>
+      <c r="M71" s="38">
         <f t="shared" si="3"/>
-        <v>50.158885424490528</v>
-      </c>
-      <c r="L71" s="38">
+        <v>50.415423257320384</v>
+      </c>
+      <c r="N71" s="38">
         <v>39.102042009999998</v>
       </c>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38">
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38">
         <v>102</v>
       </c>
-      <c r="P71" s="38">
+      <c r="R71" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="38">
+      <c r="S71" s="38"/>
+      <c r="T71" s="38">
         <v>102.7</v>
       </c>
-      <c r="S71" s="38">
+      <c r="U71" s="38">
         <v>76</v>
       </c>
-      <c r="T71" s="39"/>
-      <c r="U71" s="38"/>
-      <c r="V71" s="38"/>
+      <c r="V71" s="39"/>
       <c r="W71" s="38"/>
       <c r="X71" s="38"/>
       <c r="Y71" s="38"/>
-      <c r="AC71">
+      <c r="Z71" s="38"/>
+      <c r="AA71" s="38"/>
+      <c r="AE71">
         <v>24.94822001</v>
       </c>
-      <c r="AD71">
+      <c r="AF71">
         <v>40</v>
       </c>
-      <c r="AE71">
+      <c r="AG71">
         <v>44</v>
       </c>
-      <c r="AF71">
+      <c r="AH71">
         <v>35</v>
       </c>
-      <c r="AG71">
+      <c r="AI71">
         <v>0.5</v>
       </c>
-      <c r="AH71">
+      <c r="AJ71">
         <v>15.3</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2049</v>
       </c>
@@ -58386,67 +58719,73 @@
       <c r="F72">
         <v>1.856311209</v>
       </c>
-      <c r="G72" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H72" s="38">
+      <c r="G72">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H72">
+        <v>280.83</v>
+      </c>
+      <c r="I72" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J72" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I72" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K72" s="38">
         <f t="shared" si="2"/>
         <v>250.11289269999997</v>
       </c>
-      <c r="J72" s="39"/>
-      <c r="K72" s="38">
+      <c r="L72" s="39"/>
+      <c r="M72" s="38">
         <f t="shared" si="3"/>
-        <v>50.032403188729027</v>
-      </c>
-      <c r="L72" s="38">
+        <v>50.288294127626152</v>
+      </c>
+      <c r="N72" s="38">
         <v>38.271672479999999</v>
       </c>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38">
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38">
         <v>102</v>
       </c>
-      <c r="P72" s="38">
+      <c r="R72" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38">
+      <c r="S72" s="38"/>
+      <c r="T72" s="38">
         <v>102.7</v>
       </c>
-      <c r="S72" s="38">
+      <c r="U72" s="38">
         <v>76</v>
       </c>
-      <c r="T72" s="39"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
+      <c r="V72" s="39"/>
       <c r="W72" s="38"/>
       <c r="X72" s="38"/>
       <c r="Y72" s="38"/>
-      <c r="AC72">
+      <c r="Z72" s="38"/>
+      <c r="AA72" s="38"/>
+      <c r="AE72">
         <v>25.011289269999999</v>
       </c>
-      <c r="AD72">
+      <c r="AF72">
         <v>40</v>
       </c>
-      <c r="AE72">
+      <c r="AG72">
         <v>44</v>
       </c>
-      <c r="AF72">
+      <c r="AH72">
         <v>35</v>
       </c>
-      <c r="AG72">
+      <c r="AI72">
         <v>0.5</v>
       </c>
-      <c r="AH72">
+      <c r="AJ72">
         <v>15.3</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2050</v>
       </c>
@@ -58465,80 +58804,86 @@
       <c r="F73">
         <v>1.856311209</v>
       </c>
-      <c r="G73" s="38">
-        <f t="shared" si="4"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H73" s="38">
+      <c r="G73">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H73">
+        <v>280.83</v>
+      </c>
+      <c r="I73" s="38">
+        <f t="shared" si="0"/>
+        <v>12577.750713208998</v>
+      </c>
+      <c r="J73" s="38">
         <f t="shared" si="1"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I73" s="38">
+        <v>12577.750713208998</v>
+      </c>
+      <c r="K73" s="38">
         <f t="shared" si="2"/>
         <v>250.72507910000002</v>
       </c>
-      <c r="J73" s="39"/>
-      <c r="K73" s="38">
+      <c r="L73" s="39"/>
+      <c r="M73" s="38">
         <f t="shared" si="3"/>
-        <v>49.910240870936946</v>
-      </c>
-      <c r="L73" s="38">
+        <v>50.165507010140161</v>
+      </c>
+      <c r="N73" s="38">
         <v>37.458936649999998</v>
       </c>
-      <c r="M73" s="38">
+      <c r="O73" s="38">
         <v>42</v>
       </c>
-      <c r="N73" s="38"/>
-      <c r="O73" s="38">
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38">
         <v>102</v>
       </c>
-      <c r="P73" s="38">
+      <c r="R73" s="38">
         <v>101.6</v>
       </c>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="38">
+      <c r="S73" s="38"/>
+      <c r="T73" s="38">
         <v>102.7</v>
       </c>
-      <c r="S73" s="38">
+      <c r="U73" s="38">
         <v>76</v>
       </c>
-      <c r="T73" s="39"/>
-      <c r="U73" s="38"/>
-      <c r="V73" s="38"/>
+      <c r="V73" s="39"/>
       <c r="W73" s="38"/>
       <c r="X73" s="38"/>
       <c r="Y73" s="38"/>
-      <c r="AC73">
+      <c r="Z73" s="38"/>
+      <c r="AA73" s="38"/>
+      <c r="AE73">
         <v>25.072507909999999</v>
       </c>
-      <c r="AD73">
+      <c r="AF73">
         <v>40</v>
       </c>
-      <c r="AE73">
+      <c r="AG73">
         <v>44</v>
       </c>
-      <c r="AF73">
+      <c r="AH73">
         <v>35</v>
       </c>
-      <c r="AG73">
+      <c r="AI73">
         <v>0.5</v>
       </c>
-      <c r="AH73">
+      <c r="AJ73">
         <v>15.3</v>
       </c>
-      <c r="AI73">
+      <c r="AK73">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="AE1:AI1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AH1" r:id="rId1" display="https://doi.org/10.1016/j.resconrec.2020.105145" xr:uid="{8606E5EB-449A-4147-A089-6E4BD55D61F6}"/>
-    <hyperlink ref="AI1" r:id="rId2" display="https://doi.org/10.2172/1561525" xr:uid="{45FBC28C-226F-46C2-96A2-D958C37AB6D5}"/>
+    <hyperlink ref="AJ1" r:id="rId1" display="https://doi.org/10.1016/j.resconrec.2020.105145" xr:uid="{8606E5EB-449A-4147-A089-6E4BD55D61F6}"/>
+    <hyperlink ref="AK1" r:id="rId2" display="https://doi.org/10.2172/1561525" xr:uid="{45FBC28C-226F-46C2-96A2-D958C37AB6D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/PV_ICE/baselines/SupportingMaterial/Harmonize_graphs.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/Harmonize_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864E5862-E7A6-458A-83A0-664BFA3D1664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB30CC5F-6953-4561-B92B-835279C4E7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40125" yWindow="-195" windowWidth="17415" windowHeight="14310" activeTab="2" xr2:uid="{D931EBBB-F0C0-4C12-9066-9D55B5844573}"/>
+    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D931EBBB-F0C0-4C12-9066-9D55B5844573}"/>
   </bookViews>
   <sheets>
     <sheet name="USInstallsLitCompare" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,56 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Comparison of Added US PV Capacity by Source</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -608,9 +657,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10804056630075279"/>
-          <c:y val="2.5202517579283084E-2"/>
+          <c:y val="8.1210979355471363E-2"/>
           <c:w val="0.86034322921743644"/>
-          <c:h val="0.76884326572310624"/>
+          <c:h val="0.71283483195813924"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2729,9 +2778,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0"/>
+          <c:x val="3.1283121752924567E-2"/>
           <c:y val="0.87144279851625905"/>
-          <c:w val="1"/>
+          <c:w val="0.96871687824707542"/>
           <c:h val="0.12855720148374092"/>
         </c:manualLayout>
       </c:layout>
@@ -3445,6 +3494,55 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Mass-Power Factor over Time by Source</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -3453,9 +3551,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10531071995009122"/>
-          <c:y val="3.9341702003724756E-2"/>
+          <c:y val="8.1424119735727829E-2"/>
           <c:w val="0.85037198123113"/>
-          <c:h val="0.88194984408942612"/>
+          <c:h val="0.83986747574814713"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -8573,8 +8671,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.54515423437205279"/>
-          <c:y val="5.7131083791435715E-2"/>
+          <c:x val="0.52246646967216026"/>
+          <c:y val="9.9213545534975064E-2"/>
           <c:w val="0.39267176268002646"/>
           <c:h val="0.34223547440785235"/>
         </c:manualLayout>
@@ -26817,15 +26915,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>206376</xdr:colOff>
+      <xdr:colOff>206377</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>534967</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27543,10 +27641,10 @@
   <dimension ref="A1:AK1014"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA45" sqref="AA45"/>
+      <selection pane="bottomRight" activeCell="AJ40" sqref="AJ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52717,7 +52815,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
@@ -53840,7 +53938,7 @@
   <dimension ref="A1:AK73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
